--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581353.5548173364</v>
+        <v>576012.2560478615</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24746046.86820275</v>
+        <v>24746046.86820276</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9355224.418177456</v>
+        <v>9355224.418177463</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5654207.390771616</v>
+        <v>5654207.390771617</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>400.1975390368908</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>343.4382698552587</v>
       </c>
       <c r="H11" t="n">
-        <v>287.4955521732449</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.055722528434586</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.3057766507825</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>311.0057088676781</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.472832235761</v>
       </c>
       <c r="U12" t="n">
-        <v>18.94475239800794</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1517,7 +1517,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>23.27986020205526</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>116.8417609463144</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.43870620466058</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.43352600176804</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.5529535283631</v>
+        <v>169.0296592394172</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3534864459227</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9216583386502</v>
@@ -1590,7 +1590,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>400.1975390368908</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>370.9500814132704</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.4955521732449</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.055722528434586</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T14" t="n">
-        <v>211.3057766507825</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>165.0236320977725</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>20.42248356874297</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1703,7 +1703,7 @@
         <v>104.8594501332171</v>
       </c>
       <c r="H15" t="n">
-        <v>59.79501864541346</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>153.472832235761</v>
       </c>
       <c r="U15" t="n">
-        <v>18.94475239800794</v>
+        <v>195.3075158172695</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8694700256592</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>164.6885804177851</v>
@@ -1785,7 +1785,7 @@
         <v>140.2046352106296</v>
       </c>
       <c r="I16" t="n">
-        <v>88.43870620466059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.43352600176805</v>
+        <v>44.43352600176804</v>
       </c>
       <c r="S16" t="n">
         <v>169.0296592394172</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3534864459227</v>
+        <v>14.13024598647351</v>
       </c>
       <c r="U16" t="n">
         <v>279.9216583386502</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.1975390368907</v>
+        <v>16.24276751757747</v>
       </c>
       <c r="E17" t="n">
-        <v>400.1975390368907</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>400.1975390368907</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>352.4939923836934</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.22813718372832</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -1979,19 +1979,19 @@
         <v>153.472832235761</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3075158172695</v>
+        <v>163.9285472329935</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>117.8713973778263</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2046352106296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>33.93684410966855</v>
+        <v>169.0296592394172</v>
       </c>
       <c r="T19" t="n">
         <v>233.3534864459227</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9216583386502</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>400.1975390368907</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>400.1975390368907</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>400.1975390368907</v>
+        <v>129.8408990593372</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.3057766507825</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>98.16271010771193</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>104.8594501332171</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41605006113727</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.20693155278383</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>153.472832235761</v>
+        <v>96.16198637868958</v>
       </c>
       <c r="U21" t="n">
         <v>195.3075158172695</v>
@@ -2222,10 +2222,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2217745907376</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6885804177851</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>169.0296592394172</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3534864459227</v>
+        <v>192.3596203247208</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>352.4939923836933</v>
+      </c>
+      <c r="C23" t="n">
         <v>400.1975390368907</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="G23" t="n">
-        <v>380.0058039417048</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>287.4955521732449</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2408,13 +2408,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>8.955054825905309</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.8594501332171</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>43.42214734211731</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.20693155278383</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.472832235761</v>
       </c>
       <c r="U24" t="n">
         <v>195.3075158172695</v>
@@ -2462,7 +2462,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2490,7 +2490,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6885804177851</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2046352106296</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.14416688230256</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>169.0296592394172</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3534864459227</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>20.87518279078344</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>400.1975390368908</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="E26" t="n">
-        <v>29.68680079863166</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.15481326680925</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.20693155278383</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>153.472832235761</v>
+        <v>96.16198637868914</v>
       </c>
       <c r="U27" t="n">
-        <v>50.7897384074143</v>
+        <v>195.3075158172695</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2721,7 +2721,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>65.78353427939663</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>164.6885804177851</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2046352106296</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.43352600176805</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>169.0296592394172</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3534864459227</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9216583386502</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>136.92275931957</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>201.8642971881857</v>
       </c>
       <c r="C29" t="n">
-        <v>356.0545675678472</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.1975390368908</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.3057766507825</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>22.33225753538228</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>90.49829664054148</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.8594501332171</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.20693155278383</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>153.472832235761</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>195.3075158172695</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2967,10 +2967,10 @@
         <v>164.6885804177851</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2046352106296</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.43870620466059</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>44.43352600176805</v>
       </c>
       <c r="S31" t="n">
-        <v>57.44145214919735</v>
+        <v>169.0296592394172</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>184.6025154101424</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9216583386502</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,17 +3031,17 @@
         <v>400.1975390368908</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>400.1975390368908</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
         <v>400.1975390368908</v>
       </c>
-      <c r="E32" t="n">
-        <v>352.4939923836933</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.0557225284346</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.3562370894893729</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3122,7 +3122,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.8594501332171</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>59.79501864541346</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.20693155278383</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>44.22487291675692</v>
       </c>
       <c r="U33" t="n">
         <v>195.3075158172695</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>122.5674388073474</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3195,19 +3195,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6885804177851</v>
       </c>
       <c r="H34" t="n">
-        <v>119.2532290726361</v>
+        <v>140.2046352106296</v>
       </c>
       <c r="I34" t="n">
-        <v>88.43870620466059</v>
+        <v>41.51134475342701</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.43352600176805</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>169.0296592394172</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3534864459227</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9216583386502</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>132.1324932044761</v>
       </c>
       <c r="H35" t="n">
-        <v>287.4955521732449</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.0557225284346</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.3057766507825</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>92.10408929081012</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>104.8594501332171</v>
+        <v>58.41734034572997</v>
       </c>
       <c r="H36" t="n">
-        <v>59.79501864541346</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>153.472832235761</v>
       </c>
       <c r="U36" t="n">
-        <v>18.94475239800794</v>
+        <v>195.3075158172695</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>50.40654078720211</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>59.7493329661531</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6885804177851</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2046352106296</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>88.43870620466059</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>44.43352600176805</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>169.0296592394172</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>287.4955521732449</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>88.750750489788</v>
       </c>
       <c r="T38" t="n">
-        <v>87.10573590279209</v>
+        <v>211.3057766507825</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3312822759814</v>
+        <v>168.4096848222686</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.8594501332171</v>
       </c>
       <c r="H39" t="n">
-        <v>59.79501864541346</v>
+        <v>33.13721982698094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.20693155278383</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.472832235761</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3075158172695</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>5.632721110124717</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3666,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6885804177851</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2046352106296</v>
       </c>
       <c r="I40" t="n">
-        <v>88.43870620466059</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3534864459227</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9216583386502</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>85.95291631112244</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>101.8749781509655</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.1882157329107</v>
+        <v>255.4323146395382</v>
       </c>
       <c r="C41" t="n">
-        <v>400.1975390368909</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>400.1975390368909</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.1975390368909</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T41" t="n">
         <v>211.3057766507825</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3836,7 +3836,7 @@
         <v>104.8594501332171</v>
       </c>
       <c r="H42" t="n">
-        <v>59.79501864541346</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.20693155278383</v>
+        <v>64.16694111689056</v>
       </c>
       <c r="T42" t="n">
         <v>153.472832235761</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3075158172695</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>126.4289714555327</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3900,10 +3900,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88.43870620466059</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.7689728051985</v>
+        <v>40.50476670330358</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9216583386502</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.4382698552589</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>400.1975390368909</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.1975390368909</v>
+        <v>400.1975390368906</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>400.1975390368906</v>
       </c>
       <c r="F44" t="n">
-        <v>400.1975390368909</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>287.495552173245</v>
       </c>
       <c r="I44" t="n">
-        <v>9.0557225284346</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.55901539460191</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>15.85247720366813</v>
+        <v>104.8594501332171</v>
       </c>
       <c r="H45" t="n">
         <v>59.79501864541346</v>
@@ -4109,19 +4109,19 @@
         <v>87.20693155278383</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.472832235761</v>
       </c>
       <c r="U45" t="n">
         <v>195.3075158172695</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>5.632721110124041</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.23450223988434</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6885804177851</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2046352106296</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>88.43870620466059</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.43352600176805</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>169.0296592394172</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>140.8672068492314</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>726.6552891937954</v>
+        <v>1196.550217726461</v>
       </c>
       <c r="C11" t="n">
-        <v>726.6552891937954</v>
+        <v>792.3102793053595</v>
       </c>
       <c r="D11" t="n">
-        <v>726.6552891937954</v>
+        <v>388.0703408842576</v>
       </c>
       <c r="E11" t="n">
-        <v>726.6552891937954</v>
+        <v>388.0703408842576</v>
       </c>
       <c r="F11" t="n">
-        <v>322.4153507726936</v>
+        <v>388.0703408842576</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4153507726936</v>
+        <v>41.16299759611752</v>
       </c>
       <c r="H11" t="n">
-        <v>32.01580312295127</v>
+        <v>41.16299759611752</v>
       </c>
       <c r="I11" t="n">
         <v>32.01580312295127</v>
@@ -5047,13 +5047,13 @@
         <v>287.4315629263447</v>
       </c>
       <c r="L11" t="n">
-        <v>502.6347337989644</v>
+        <v>502.6347337989647</v>
       </c>
       <c r="M11" t="n">
-        <v>754.9158487714357</v>
+        <v>754.915848771436</v>
       </c>
       <c r="N11" t="n">
-        <v>1013.147728329374</v>
+        <v>1013.147728329375</v>
       </c>
       <c r="O11" t="n">
         <v>1251.587988796726</v>
@@ -5068,25 +5068,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S11" t="n">
-        <v>1511.142933430606</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T11" t="n">
-        <v>1297.702754995472</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="U11" t="n">
-        <v>1040.802469868218</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="V11" t="n">
-        <v>726.6552891937954</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="W11" t="n">
-        <v>726.6552891937954</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="X11" t="n">
-        <v>726.6552891937954</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="Y11" t="n">
-        <v>726.6552891937954</v>
+        <v>1600.790156147563</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>32.01580312295127</v>
       </c>
       <c r="I12" t="n">
-        <v>32.01580312295127</v>
+        <v>47.83672019828929</v>
       </c>
       <c r="J12" t="n">
-        <v>324.0451661675878</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K12" t="n">
-        <v>438.3544520520476</v>
+        <v>454.1753691273856</v>
       </c>
       <c r="L12" t="n">
-        <v>610.8180227335929</v>
+        <v>626.6389398089309</v>
       </c>
       <c r="M12" t="n">
-        <v>819.9144067476205</v>
+        <v>835.7353238229585</v>
       </c>
       <c r="N12" t="n">
-        <v>1040.380451051668</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O12" t="n">
-        <v>1233.064792996546</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P12" t="n">
-        <v>1379.881072930441</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q12" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R12" t="n">
         <v>1600.790156147563</v>
@@ -5150,19 +5150,19 @@
         <v>1600.790156147563</v>
       </c>
       <c r="T12" t="n">
-        <v>1600.790156147563</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="U12" t="n">
-        <v>1581.654042614222</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="V12" t="n">
-        <v>1367.942515607256</v>
+        <v>1232.055566276192</v>
       </c>
       <c r="W12" t="n">
-        <v>1154.709347343584</v>
+        <v>1018.822398012521</v>
       </c>
       <c r="X12" t="n">
-        <v>978.3833654824772</v>
+        <v>842.4964161514135</v>
       </c>
       <c r="Y12" t="n">
         <v>818.9814058463072</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.3478295923054</v>
+        <v>635.0743695749834</v>
       </c>
       <c r="C13" t="n">
-        <v>121.3478295923054</v>
+        <v>635.0743695749834</v>
       </c>
       <c r="D13" t="n">
-        <v>121.3478295923054</v>
+        <v>475.5797248978934</v>
       </c>
       <c r="E13" t="n">
-        <v>121.3478295923054</v>
+        <v>314.6689097662129</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3478295923054</v>
+        <v>150.0377838768042</v>
       </c>
       <c r="G13" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H13" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I13" t="n">
         <v>32.01580312295127</v>
@@ -5202,16 +5202,16 @@
         <v>108.343599595824</v>
       </c>
       <c r="K13" t="n">
-        <v>158.9037956488609</v>
+        <v>336.2096996946654</v>
       </c>
       <c r="L13" t="n">
-        <v>411.9255432619835</v>
+        <v>727.0003026807241</v>
       </c>
       <c r="M13" t="n">
-        <v>808.1211069085055</v>
+        <v>1123.195866327246</v>
       </c>
       <c r="N13" t="n">
-        <v>891.6528919428592</v>
+        <v>1206.7276513616</v>
       </c>
       <c r="O13" t="n">
         <v>1275.655973840378</v>
@@ -5223,28 +5223,28 @@
         <v>1600.790156147563</v>
       </c>
       <c r="R13" t="n">
-        <v>1555.907806650828</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="S13" t="n">
-        <v>1431.106843490865</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="T13" t="n">
-        <v>1195.396251121246</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="U13" t="n">
-        <v>912.6471012842258</v>
+        <v>1147.303976775778</v>
       </c>
       <c r="V13" t="n">
-        <v>638.7613562237477</v>
+        <v>873.4182317153</v>
       </c>
       <c r="W13" t="n">
-        <v>359.691691732622</v>
+        <v>873.4182317153</v>
       </c>
       <c r="X13" t="n">
-        <v>121.3478295923054</v>
+        <v>635.0743695749834</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.3478295923054</v>
+        <v>635.0743695749834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>436.2557415440531</v>
+        <v>1110.499535599558</v>
       </c>
       <c r="C14" t="n">
-        <v>436.2557415440531</v>
+        <v>1110.499535599558</v>
       </c>
       <c r="D14" t="n">
-        <v>32.01580312295127</v>
+        <v>1110.499535599558</v>
       </c>
       <c r="E14" t="n">
-        <v>32.01580312295127</v>
+        <v>706.2595971784563</v>
       </c>
       <c r="F14" t="n">
-        <v>32.01580312295127</v>
+        <v>706.2595971784563</v>
       </c>
       <c r="G14" t="n">
-        <v>32.01580312295127</v>
+        <v>331.5625452458598</v>
       </c>
       <c r="H14" t="n">
-        <v>32.01580312295127</v>
+        <v>41.16299759611752</v>
       </c>
       <c r="I14" t="n">
         <v>32.01580312295127</v>
       </c>
       <c r="J14" t="n">
-        <v>126.0098108647278</v>
+        <v>126.0098108647275</v>
       </c>
       <c r="K14" t="n">
-        <v>287.4315629263448</v>
+        <v>287.4315629263446</v>
       </c>
       <c r="L14" t="n">
-        <v>502.6347337989648</v>
+        <v>502.6347337989646</v>
       </c>
       <c r="M14" t="n">
-        <v>754.9158487714361</v>
+        <v>754.915848771436</v>
       </c>
       <c r="N14" t="n">
         <v>1013.147728329375</v>
@@ -5305,25 +5305,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S14" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="T14" t="n">
-        <v>1387.349977712429</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="U14" t="n">
-        <v>1387.349977712429</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="V14" t="n">
-        <v>1220.659440239932</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="W14" t="n">
-        <v>836.8991393751005</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="X14" t="n">
-        <v>436.2557415440531</v>
+        <v>1110.499535599558</v>
       </c>
       <c r="Y14" t="n">
-        <v>436.2557415440531</v>
+        <v>1110.499535599558</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>678.6783732107206</v>
+        <v>504.9130645084839</v>
       </c>
       <c r="C15" t="n">
-        <v>544.6833019596662</v>
+        <v>484.2842932269253</v>
       </c>
       <c r="D15" t="n">
-        <v>427.7861441790586</v>
+        <v>367.3871354463178</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2933281713866</v>
+        <v>246.8943194386458</v>
       </c>
       <c r="F15" t="n">
-        <v>198.3334483538912</v>
+        <v>137.9344396211503</v>
       </c>
       <c r="G15" t="n">
-        <v>92.41481185569214</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H15" t="n">
         <v>32.01580312295127</v>
       </c>
       <c r="I15" t="n">
-        <v>32.01580312295127</v>
+        <v>47.83672019828929</v>
       </c>
       <c r="J15" t="n">
-        <v>80.37676219295452</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K15" t="n">
-        <v>194.6860480774143</v>
+        <v>454.1753691273856</v>
       </c>
       <c r="L15" t="n">
-        <v>367.1496187589595</v>
+        <v>626.6389398089309</v>
       </c>
       <c r="M15" t="n">
-        <v>576.2460027729871</v>
+        <v>835.7353238229585</v>
       </c>
       <c r="N15" t="n">
-        <v>796.7120470770348</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O15" t="n">
-        <v>1192.907610723557</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P15" t="n">
-        <v>1516.073177694817</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q15" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R15" t="n">
         <v>1600.790156147563</v>
@@ -5387,22 +5387,22 @@
         <v>1600.790156147563</v>
       </c>
       <c r="T15" t="n">
-        <v>1600.790156147563</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="U15" t="n">
-        <v>1581.654042614222</v>
+        <v>1248.486774275815</v>
       </c>
       <c r="V15" t="n">
-        <v>1367.942515607256</v>
+        <v>1034.775247268849</v>
       </c>
       <c r="W15" t="n">
-        <v>1154.709347343584</v>
+        <v>821.5420790051777</v>
       </c>
       <c r="X15" t="n">
-        <v>978.3833654824772</v>
+        <v>645.2160971440705</v>
       </c>
       <c r="Y15" t="n">
-        <v>818.9814058463072</v>
+        <v>645.2160971440705</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>592.8252898489457</v>
+        <v>675.7132465298503</v>
       </c>
       <c r="C16" t="n">
-        <v>592.8252898489457</v>
+        <v>504.6198740915668</v>
       </c>
       <c r="D16" t="n">
-        <v>592.8252898489457</v>
+        <v>504.6198740915668</v>
       </c>
       <c r="E16" t="n">
-        <v>592.8252898489457</v>
+        <v>504.6198740915668</v>
       </c>
       <c r="F16" t="n">
-        <v>429.3207746715121</v>
+        <v>339.988748202158</v>
       </c>
       <c r="G16" t="n">
-        <v>262.968673239406</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="H16" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I16" t="n">
         <v>32.01580312295127</v>
       </c>
       <c r="J16" t="n">
-        <v>108.3435995958239</v>
+        <v>43.34223596448757</v>
       </c>
       <c r="K16" t="n">
-        <v>365.183989234575</v>
+        <v>93.9024320175245</v>
       </c>
       <c r="L16" t="n">
-        <v>441.9954809856106</v>
+        <v>484.6930350035832</v>
       </c>
       <c r="M16" t="n">
-        <v>838.1910446321325</v>
+        <v>810.5320877150779</v>
       </c>
       <c r="N16" t="n">
-        <v>921.7228296664863</v>
+        <v>1206.7276513616</v>
       </c>
       <c r="O16" t="n">
-        <v>1149.382013634541</v>
+        <v>1275.655973840378</v>
       </c>
       <c r="P16" t="n">
-        <v>1461.539486414458</v>
+        <v>1587.813446620295</v>
       </c>
       <c r="Q16" t="n">
         <v>1600.790156147563</v>
@@ -5466,22 +5466,22 @@
         <v>1385.170777116063</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.460184746444</v>
+        <v>1370.89780137215</v>
       </c>
       <c r="U16" t="n">
-        <v>866.7110349094237</v>
+        <v>1088.14865153513</v>
       </c>
       <c r="V16" t="n">
-        <v>592.8252898489457</v>
+        <v>1088.14865153513</v>
       </c>
       <c r="W16" t="n">
-        <v>592.8252898489457</v>
+        <v>1088.14865153513</v>
       </c>
       <c r="X16" t="n">
-        <v>592.8252898489457</v>
+        <v>1088.14865153513</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.8252898489457</v>
+        <v>863.4129529238946</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1600.790156147563</v>
+        <v>48.42263899929213</v>
       </c>
       <c r="C17" t="n">
-        <v>1600.790156147563</v>
+        <v>48.42263899929213</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.550217726461</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="E17" t="n">
-        <v>792.3102793053595</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="F17" t="n">
-        <v>388.0703408842577</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G17" t="n">
         <v>32.01580312295125</v>
@@ -5515,16 +5515,16 @@
         <v>32.01580312295125</v>
       </c>
       <c r="J17" t="n">
-        <v>126.0098108647276</v>
+        <v>126.0098108647273</v>
       </c>
       <c r="K17" t="n">
-        <v>287.4315629263446</v>
+        <v>287.4315629263444</v>
       </c>
       <c r="L17" t="n">
-        <v>502.6347337989646</v>
+        <v>502.6347337989645</v>
       </c>
       <c r="M17" t="n">
-        <v>754.9158487714359</v>
+        <v>754.9158487714358</v>
       </c>
       <c r="N17" t="n">
         <v>1013.147728329374</v>
@@ -5533,7 +5533,7 @@
         <v>1251.587988796726</v>
       </c>
       <c r="P17" t="n">
-        <v>1441.118329247342</v>
+        <v>1441.118329247341</v>
       </c>
       <c r="Q17" t="n">
         <v>1563.937759369402</v>
@@ -5542,25 +5542,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S17" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430605</v>
       </c>
       <c r="T17" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430605</v>
       </c>
       <c r="U17" t="n">
-        <v>1600.790156147563</v>
+        <v>1254.242648303351</v>
       </c>
       <c r="V17" t="n">
-        <v>1600.790156147563</v>
+        <v>1254.242648303351</v>
       </c>
       <c r="W17" t="n">
-        <v>1600.790156147563</v>
+        <v>1254.242648303351</v>
       </c>
       <c r="X17" t="n">
-        <v>1600.790156147563</v>
+        <v>853.5992504723038</v>
       </c>
       <c r="Y17" t="n">
-        <v>1600.790156147563</v>
+        <v>452.6625774203939</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>32.01580312295125</v>
       </c>
       <c r="I18" t="n">
-        <v>32.01580312295125</v>
+        <v>47.83672019828927</v>
       </c>
       <c r="J18" t="n">
-        <v>324.0451661675878</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K18" t="n">
-        <v>438.3544520520475</v>
+        <v>454.1753691273856</v>
       </c>
       <c r="L18" t="n">
-        <v>610.8180227335928</v>
+        <v>626.6389398089309</v>
       </c>
       <c r="M18" t="n">
-        <v>819.9144067476204</v>
+        <v>835.7353238229585</v>
       </c>
       <c r="N18" t="n">
-        <v>1040.380451051668</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O18" t="n">
-        <v>1233.064792996546</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P18" t="n">
-        <v>1379.88107293044</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q18" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R18" t="n">
         <v>1600.790156147563</v>
@@ -5627,19 +5627,19 @@
         <v>1357.679283633881</v>
       </c>
       <c r="U18" t="n">
-        <v>1160.398964626538</v>
+        <v>1192.094892489443</v>
       </c>
       <c r="V18" t="n">
-        <v>946.6874376195719</v>
+        <v>978.3833654824772</v>
       </c>
       <c r="W18" t="n">
-        <v>733.4542693559007</v>
+        <v>978.3833654824772</v>
       </c>
       <c r="X18" t="n">
-        <v>733.4542693559007</v>
+        <v>978.3833654824772</v>
       </c>
       <c r="Y18" t="n">
-        <v>733.4542693559007</v>
+        <v>818.9814058463072</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.01580312295125</v>
+        <v>452.1933090005017</v>
       </c>
       <c r="C19" t="n">
-        <v>32.01580312295125</v>
+        <v>452.1933090005017</v>
       </c>
       <c r="D19" t="n">
-        <v>32.01580312295125</v>
+        <v>292.6986643234117</v>
       </c>
       <c r="E19" t="n">
-        <v>32.01580312295125</v>
+        <v>292.6986643234117</v>
       </c>
       <c r="F19" t="n">
-        <v>32.01580312295125</v>
+        <v>292.6986643234117</v>
       </c>
       <c r="G19" t="n">
-        <v>32.01580312295125</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="H19" t="n">
         <v>32.01580312295125</v>
@@ -5673,19 +5673,19 @@
         <v>32.01580312295125</v>
       </c>
       <c r="J19" t="n">
-        <v>43.34223596448755</v>
+        <v>108.3435995958239</v>
       </c>
       <c r="K19" t="n">
-        <v>300.1826256032386</v>
+        <v>365.1839892345751</v>
       </c>
       <c r="L19" t="n">
-        <v>376.9941173542742</v>
+        <v>599.5405937963009</v>
       </c>
       <c r="M19" t="n">
-        <v>773.189681000796</v>
+        <v>681.8471467026679</v>
       </c>
       <c r="N19" t="n">
-        <v>856.7214660351498</v>
+        <v>765.3789317370217</v>
       </c>
       <c r="O19" t="n">
         <v>1149.38201363454</v>
@@ -5700,25 +5700,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S19" t="n">
-        <v>1566.510515632746</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="T19" t="n">
-        <v>1330.799923263127</v>
+        <v>1194.342534243179</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.050773426107</v>
+        <v>1194.342534243179</v>
       </c>
       <c r="V19" t="n">
-        <v>774.1650283656288</v>
+        <v>1194.342534243179</v>
       </c>
       <c r="W19" t="n">
-        <v>495.0953638745032</v>
+        <v>915.2728697520536</v>
       </c>
       <c r="X19" t="n">
-        <v>256.7515017341865</v>
+        <v>676.929007611737</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.01580312295125</v>
+        <v>452.1933090005017</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>840.4956799651547</v>
+        <v>163.1682264152111</v>
       </c>
       <c r="C20" t="n">
-        <v>436.255741544053</v>
+        <v>163.1682264152111</v>
       </c>
       <c r="D20" t="n">
-        <v>436.255741544053</v>
+        <v>163.1682264152111</v>
       </c>
       <c r="E20" t="n">
-        <v>436.255741544053</v>
+        <v>163.1682264152111</v>
       </c>
       <c r="F20" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="G20" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H20" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I20" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="J20" t="n">
         <v>126.0098108647276</v>
       </c>
       <c r="K20" t="n">
-        <v>287.4315629263446</v>
+        <v>287.4315629263447</v>
       </c>
       <c r="L20" t="n">
-        <v>502.6347337989646</v>
+        <v>502.6347337989648</v>
       </c>
       <c r="M20" t="n">
-        <v>754.9158487714359</v>
+        <v>754.9158487714362</v>
       </c>
       <c r="N20" t="n">
-        <v>1013.147728329374</v>
+        <v>1013.147728329375</v>
       </c>
       <c r="O20" t="n">
         <v>1251.587988796726</v>
@@ -5773,31 +5773,31 @@
         <v>1441.118329247342</v>
       </c>
       <c r="Q20" t="n">
-        <v>1563.937759369402</v>
+        <v>1563.937759369403</v>
       </c>
       <c r="R20" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S20" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.790156147563</v>
+        <v>1297.702754995472</v>
       </c>
       <c r="U20" t="n">
-        <v>1343.889871020309</v>
+        <v>1297.702754995472</v>
       </c>
       <c r="V20" t="n">
-        <v>1343.889871020309</v>
+        <v>947.8652003319523</v>
       </c>
       <c r="W20" t="n">
-        <v>1343.889871020309</v>
+        <v>564.104899467121</v>
       </c>
       <c r="X20" t="n">
-        <v>1343.889871020309</v>
+        <v>564.104899467121</v>
       </c>
       <c r="Y20" t="n">
-        <v>1244.735618386256</v>
+        <v>163.1682264152111</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>646.9824453478153</v>
+        <v>403.4008481622852</v>
       </c>
       <c r="C21" t="n">
-        <v>512.987374096761</v>
+        <v>269.4057769112309</v>
       </c>
       <c r="D21" t="n">
-        <v>396.0902163161534</v>
+        <v>152.5086191306233</v>
       </c>
       <c r="E21" t="n">
-        <v>275.5974003084814</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="F21" t="n">
-        <v>166.637520490986</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="G21" t="n">
-        <v>60.71888399278689</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H21" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I21" t="n">
-        <v>32.01580312295125</v>
+        <v>47.83672019828929</v>
       </c>
       <c r="J21" t="n">
-        <v>80.37676219295449</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K21" t="n">
-        <v>194.6860480774142</v>
+        <v>486.5768403394422</v>
       </c>
       <c r="L21" t="n">
-        <v>367.1496187589595</v>
+        <v>659.0404110209876</v>
       </c>
       <c r="M21" t="n">
-        <v>763.3451824054813</v>
+        <v>868.1367950350152</v>
       </c>
       <c r="N21" t="n">
-        <v>1159.540746052003</v>
+        <v>1088.602839339063</v>
       </c>
       <c r="O21" t="n">
-        <v>1352.225087996881</v>
+        <v>1281.287181283941</v>
       </c>
       <c r="P21" t="n">
-        <v>1499.041367930776</v>
+        <v>1428.103461217836</v>
       </c>
       <c r="Q21" t="n">
-        <v>1576.966888439926</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R21" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S21" t="n">
-        <v>1512.702346498286</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T21" t="n">
-        <v>1357.679283633881</v>
+        <v>1503.656836573129</v>
       </c>
       <c r="U21" t="n">
-        <v>1160.398964626538</v>
+        <v>1306.376517565786</v>
       </c>
       <c r="V21" t="n">
-        <v>946.6874376195719</v>
+        <v>1092.66499055882</v>
       </c>
       <c r="W21" t="n">
-        <v>946.6874376195719</v>
+        <v>879.431822295149</v>
       </c>
       <c r="X21" t="n">
-        <v>946.6874376195719</v>
+        <v>703.1058404340417</v>
       </c>
       <c r="Y21" t="n">
-        <v>787.285477983402</v>
+        <v>543.7038807978718</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.3871246915755</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="C22" t="n">
-        <v>470.293752253292</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="D22" t="n">
-        <v>470.293752253292</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="E22" t="n">
-        <v>362.9990304444661</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="F22" t="n">
-        <v>198.3679045550574</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="G22" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H22" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I22" t="n">
-        <v>32.01580312295125</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="J22" t="n">
-        <v>43.34223596448755</v>
+        <v>108.343599595824</v>
       </c>
       <c r="K22" t="n">
-        <v>283.347756371898</v>
+        <v>365.1839892345751</v>
       </c>
       <c r="L22" t="n">
-        <v>360.1592481229336</v>
+        <v>755.9745922206337</v>
       </c>
       <c r="M22" t="n">
-        <v>756.3548117694554</v>
+        <v>838.2811451270007</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.550375415977</v>
+        <v>1234.476708773523</v>
       </c>
       <c r="O22" t="n">
         <v>1536.553457313496</v>
       </c>
       <c r="P22" t="n">
-        <v>1587.813446620294</v>
+        <v>1587.813446620295</v>
       </c>
       <c r="Q22" t="n">
         <v>1600.790156147563</v>
@@ -5940,22 +5940,22 @@
         <v>1430.053126612798</v>
       </c>
       <c r="T22" t="n">
-        <v>1194.342534243179</v>
+        <v>1235.750479820151</v>
       </c>
       <c r="U22" t="n">
-        <v>1194.342534243179</v>
+        <v>1235.750479820151</v>
       </c>
       <c r="V22" t="n">
-        <v>920.4567891827012</v>
+        <v>961.8647347596732</v>
       </c>
       <c r="W22" t="n">
-        <v>641.3871246915755</v>
+        <v>682.7950702685475</v>
       </c>
       <c r="X22" t="n">
-        <v>641.3871246915755</v>
+        <v>444.451208128231</v>
       </c>
       <c r="Y22" t="n">
-        <v>641.3871246915755</v>
+        <v>219.7155095169957</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>706.259597178456</v>
+        <v>1244.735618386256</v>
       </c>
       <c r="C23" t="n">
-        <v>706.259597178456</v>
+        <v>840.4956799651547</v>
       </c>
       <c r="D23" t="n">
-        <v>706.259597178456</v>
+        <v>840.4956799651547</v>
       </c>
       <c r="E23" t="n">
-        <v>706.259597178456</v>
+        <v>436.255741544053</v>
       </c>
       <c r="F23" t="n">
-        <v>706.259597178456</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G23" t="n">
-        <v>322.4153507726936</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H23" t="n">
         <v>32.01580312295125</v>
@@ -6016,25 +6016,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S23" t="n">
-        <v>1511.142933430605</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T23" t="n">
-        <v>1511.142933430605</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="U23" t="n">
-        <v>1511.142933430605</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="V23" t="n">
-        <v>1511.142933430605</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="W23" t="n">
-        <v>1511.142933430605</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="X23" t="n">
-        <v>1110.499535599558</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="Y23" t="n">
-        <v>1110.499535599558</v>
+        <v>1600.790156147563</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>412.446358087442</v>
+        <v>662.1401193690073</v>
       </c>
       <c r="C24" t="n">
-        <v>278.4512868363877</v>
+        <v>528.1450481179529</v>
       </c>
       <c r="D24" t="n">
-        <v>161.5541290557802</v>
+        <v>411.2478903373453</v>
       </c>
       <c r="E24" t="n">
-        <v>41.06131304810813</v>
+        <v>290.7550743296733</v>
       </c>
       <c r="F24" t="n">
-        <v>32.01580312295125</v>
+        <v>181.7951945121779</v>
       </c>
       <c r="G24" t="n">
-        <v>32.01580312295125</v>
+        <v>75.87655801397884</v>
       </c>
       <c r="H24" t="n">
         <v>32.01580312295125</v>
       </c>
       <c r="I24" t="n">
-        <v>32.01580312295125</v>
+        <v>47.83672019828927</v>
       </c>
       <c r="J24" t="n">
-        <v>80.37676219295449</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K24" t="n">
-        <v>194.6860480774142</v>
+        <v>454.1753691273856</v>
       </c>
       <c r="L24" t="n">
-        <v>543.4989057963248</v>
+        <v>626.6389398089309</v>
       </c>
       <c r="M24" t="n">
-        <v>752.5952898103525</v>
+        <v>835.7353238229584</v>
       </c>
       <c r="N24" t="n">
-        <v>973.0613341144001</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O24" t="n">
-        <v>1369.256897760922</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P24" t="n">
-        <v>1516.073177694816</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q24" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R24" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S24" t="n">
-        <v>1512.702346498286</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T24" t="n">
-        <v>1512.702346498286</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="U24" t="n">
-        <v>1315.422027490943</v>
+        <v>1248.486774275815</v>
       </c>
       <c r="V24" t="n">
-        <v>1101.710500483977</v>
+        <v>1034.775247268848</v>
       </c>
       <c r="W24" t="n">
-        <v>888.4773322203058</v>
+        <v>821.5420790051772</v>
       </c>
       <c r="X24" t="n">
-        <v>712.1513503591987</v>
+        <v>821.5420790051772</v>
       </c>
       <c r="Y24" t="n">
-        <v>552.7493907230287</v>
+        <v>662.1401193690073</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>924.5399176762944</v>
+        <v>758.1878162441882</v>
       </c>
       <c r="C25" t="n">
-        <v>753.4465452380109</v>
+        <v>587.0944438059047</v>
       </c>
       <c r="D25" t="n">
-        <v>593.9519005609209</v>
+        <v>427.5997991288147</v>
       </c>
       <c r="E25" t="n">
-        <v>593.9519005609209</v>
+        <v>427.5997991288147</v>
       </c>
       <c r="F25" t="n">
-        <v>429.3207746715121</v>
+        <v>262.968673239406</v>
       </c>
       <c r="G25" t="n">
         <v>262.968673239406</v>
@@ -6147,52 +6147,52 @@
         <v>32.01580312295125</v>
       </c>
       <c r="J25" t="n">
-        <v>43.34223596448755</v>
+        <v>108.3435995958239</v>
       </c>
       <c r="K25" t="n">
-        <v>208.7499908102424</v>
+        <v>365.183989234575</v>
       </c>
       <c r="L25" t="n">
-        <v>599.5405937963011</v>
+        <v>755.9745922206337</v>
       </c>
       <c r="M25" t="n">
-        <v>681.8471467026681</v>
+        <v>1123.195866327246</v>
       </c>
       <c r="N25" t="n">
-        <v>765.3789317370218</v>
+        <v>1206.7276513616</v>
       </c>
       <c r="O25" t="n">
-        <v>1149.38201363454</v>
+        <v>1275.655973840378</v>
       </c>
       <c r="P25" t="n">
-        <v>1461.539486414457</v>
+        <v>1587.813446620294</v>
       </c>
       <c r="Q25" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="R25" t="n">
-        <v>1569.331401720995</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="S25" t="n">
-        <v>1398.59437218623</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="T25" t="n">
-        <v>1162.883779816611</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="U25" t="n">
-        <v>1162.883779816611</v>
+        <v>1408.967083389784</v>
       </c>
       <c r="V25" t="n">
-        <v>1162.883779816611</v>
+        <v>1408.967083389784</v>
       </c>
       <c r="W25" t="n">
-        <v>1162.883779816611</v>
+        <v>1408.967083389784</v>
       </c>
       <c r="X25" t="n">
-        <v>924.5399176762944</v>
+        <v>1170.623221249468</v>
       </c>
       <c r="Y25" t="n">
-        <v>924.5399176762944</v>
+        <v>945.8875226382326</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>466.2424090174184</v>
+        <v>1250.952601484043</v>
       </c>
       <c r="C26" t="n">
-        <v>466.2424090174184</v>
+        <v>1250.952601484043</v>
       </c>
       <c r="D26" t="n">
-        <v>62.00247059631658</v>
+        <v>846.7126630629418</v>
       </c>
       <c r="E26" t="n">
-        <v>32.01580312295127</v>
+        <v>442.4727246418401</v>
       </c>
       <c r="F26" t="n">
-        <v>32.01580312295127</v>
+        <v>442.4727246418401</v>
       </c>
       <c r="G26" t="n">
-        <v>32.01580312295127</v>
+        <v>38.23278622073838</v>
       </c>
       <c r="H26" t="n">
-        <v>32.01580312295127</v>
+        <v>38.23278622073838</v>
       </c>
       <c r="I26" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J26" t="n">
         <v>126.0098108647276</v>
       </c>
       <c r="K26" t="n">
-        <v>287.4315629263447</v>
+        <v>287.4315629263446</v>
       </c>
       <c r="L26" t="n">
-        <v>502.6347337989648</v>
+        <v>502.6347337989646</v>
       </c>
       <c r="M26" t="n">
-        <v>754.915848771436</v>
+        <v>754.9158487714359</v>
       </c>
       <c r="N26" t="n">
-        <v>1013.147728329375</v>
+        <v>1013.147728329374</v>
       </c>
       <c r="O26" t="n">
         <v>1251.587988796726</v>
@@ -6247,31 +6247,31 @@
         <v>1441.118329247342</v>
       </c>
       <c r="Q26" t="n">
-        <v>1563.937759369403</v>
+        <v>1563.937759369402</v>
       </c>
       <c r="R26" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S26" t="n">
-        <v>1511.142933430606</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T26" t="n">
-        <v>1511.142933430606</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="U26" t="n">
-        <v>1254.242648303352</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="V26" t="n">
-        <v>1254.242648303352</v>
+        <v>1250.952601484043</v>
       </c>
       <c r="W26" t="n">
-        <v>870.4823474385203</v>
+        <v>1250.952601484043</v>
       </c>
       <c r="X26" t="n">
-        <v>870.4823474385203</v>
+        <v>1250.952601484043</v>
       </c>
       <c r="Y26" t="n">
-        <v>870.4823474385203</v>
+        <v>1250.952601484043</v>
       </c>
     </row>
     <row r="27">
@@ -6290,52 +6290,52 @@
         <v>152.5086191306233</v>
       </c>
       <c r="E27" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="F27" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G27" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H27" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I27" t="n">
-        <v>32.01580312295127</v>
+        <v>47.83672019828927</v>
       </c>
       <c r="J27" t="n">
-        <v>324.0451661675878</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K27" t="n">
-        <v>438.3544520520476</v>
+        <v>454.1753691273856</v>
       </c>
       <c r="L27" t="n">
-        <v>610.8180227335929</v>
+        <v>626.6389398089309</v>
       </c>
       <c r="M27" t="n">
-        <v>819.9144067476204</v>
+        <v>835.7353238229584</v>
       </c>
       <c r="N27" t="n">
-        <v>1040.380451051668</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O27" t="n">
-        <v>1233.064792996546</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P27" t="n">
-        <v>1379.88107293044</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q27" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R27" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S27" t="n">
-        <v>1512.702346498287</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T27" t="n">
-        <v>1357.679283633882</v>
+        <v>1503.656836573129</v>
       </c>
       <c r="U27" t="n">
         <v>1306.376517565786</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>737.0247797411645</v>
+        <v>528.9559216704308</v>
       </c>
       <c r="C28" t="n">
-        <v>565.931407302881</v>
+        <v>357.8625492321474</v>
       </c>
       <c r="D28" t="n">
-        <v>406.436762625791</v>
+        <v>198.3679045550574</v>
       </c>
       <c r="E28" t="n">
-        <v>339.988748202158</v>
+        <v>198.3679045550574</v>
       </c>
       <c r="F28" t="n">
-        <v>339.988748202158</v>
+        <v>198.3679045550574</v>
       </c>
       <c r="G28" t="n">
-        <v>173.6366467700518</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H28" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I28" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J28" t="n">
-        <v>43.34223596448756</v>
+        <v>43.34223596448755</v>
       </c>
       <c r="K28" t="n">
-        <v>93.90243201752449</v>
+        <v>93.90243201752446</v>
       </c>
       <c r="L28" t="n">
-        <v>170.7139237685601</v>
+        <v>484.6930350035831</v>
       </c>
       <c r="M28" t="n">
-        <v>566.9094874150819</v>
+        <v>880.888598650105</v>
       </c>
       <c r="N28" t="n">
-        <v>963.1050510616038</v>
+        <v>1277.084162296627</v>
       </c>
       <c r="O28" t="n">
-        <v>1347.108132959122</v>
+        <v>1536.553457313496</v>
       </c>
       <c r="P28" t="n">
-        <v>1461.539486414458</v>
+        <v>1587.813446620294</v>
       </c>
       <c r="Q28" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="R28" t="n">
-        <v>1555.907806650828</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="S28" t="n">
-        <v>1385.170777116063</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T28" t="n">
-        <v>1149.460184746444</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="U28" t="n">
-        <v>1149.460184746444</v>
+        <v>1318.041006310542</v>
       </c>
       <c r="V28" t="n">
-        <v>1149.460184746444</v>
+        <v>1318.041006310542</v>
       </c>
       <c r="W28" t="n">
-        <v>1149.460184746444</v>
+        <v>1179.735188816027</v>
       </c>
       <c r="X28" t="n">
-        <v>1149.460184746444</v>
+        <v>941.3913266757105</v>
       </c>
       <c r="Y28" t="n">
-        <v>924.7244861352088</v>
+        <v>716.6556280644752</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1200.146758316516</v>
+        <v>436.255741544053</v>
       </c>
       <c r="C29" t="n">
-        <v>840.495679965155</v>
+        <v>436.255741544053</v>
       </c>
       <c r="D29" t="n">
-        <v>436.2557415440531</v>
+        <v>436.255741544053</v>
       </c>
       <c r="E29" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="F29" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G29" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H29" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I29" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J29" t="n">
         <v>126.0098108647276</v>
       </c>
       <c r="K29" t="n">
-        <v>287.431562926345</v>
+        <v>287.4315629263446</v>
       </c>
       <c r="L29" t="n">
-        <v>502.634733798965</v>
+        <v>502.6347337989644</v>
       </c>
       <c r="M29" t="n">
-        <v>754.9158487714363</v>
+        <v>754.9158487714357</v>
       </c>
       <c r="N29" t="n">
-        <v>1013.147728329375</v>
+        <v>1013.147728329374</v>
       </c>
       <c r="O29" t="n">
         <v>1251.587988796726</v>
       </c>
       <c r="P29" t="n">
-        <v>1441.118329247342</v>
+        <v>1441.118329247341</v>
       </c>
       <c r="Q29" t="n">
-        <v>1563.937759369403</v>
+        <v>1563.937759369402</v>
       </c>
       <c r="R29" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S29" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430605</v>
       </c>
       <c r="T29" t="n">
-        <v>1600.790156147563</v>
+        <v>1297.702754995471</v>
       </c>
       <c r="U29" t="n">
-        <v>1600.790156147563</v>
+        <v>1040.802469868217</v>
       </c>
       <c r="V29" t="n">
-        <v>1600.790156147563</v>
+        <v>1040.802469868217</v>
       </c>
       <c r="W29" t="n">
-        <v>1600.790156147563</v>
+        <v>1040.802469868217</v>
       </c>
       <c r="X29" t="n">
-        <v>1200.146758316516</v>
+        <v>640.1590720371698</v>
       </c>
       <c r="Y29" t="n">
-        <v>1200.146758316516</v>
+        <v>640.1590720371698</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.4232952230374</v>
+        <v>618.2793644779797</v>
       </c>
       <c r="C30" t="n">
-        <v>123.4282239719831</v>
+        <v>484.2842932269253</v>
       </c>
       <c r="D30" t="n">
-        <v>32.01580312295127</v>
+        <v>367.3871354463178</v>
       </c>
       <c r="E30" t="n">
-        <v>32.01580312295127</v>
+        <v>246.8943194386457</v>
       </c>
       <c r="F30" t="n">
-        <v>32.01580312295127</v>
+        <v>137.9344396211503</v>
       </c>
       <c r="G30" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H30" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I30" t="n">
-        <v>47.83672019828929</v>
+        <v>47.83672019828927</v>
       </c>
       <c r="J30" t="n">
         <v>339.8660832429258</v>
@@ -6554,40 +6554,40 @@
         <v>835.7353238229584</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.201368127006</v>
+        <v>1088.602839339063</v>
       </c>
       <c r="O30" t="n">
-        <v>1248.885710071884</v>
+        <v>1281.287181283941</v>
       </c>
       <c r="P30" t="n">
-        <v>1395.701990005778</v>
+        <v>1428.103461217835</v>
       </c>
       <c r="Q30" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R30" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S30" t="n">
-        <v>1512.702346498287</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T30" t="n">
-        <v>1357.679283633882</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="U30" t="n">
-        <v>1160.398964626539</v>
+        <v>1403.50983714022</v>
       </c>
       <c r="V30" t="n">
-        <v>946.6874376195724</v>
+        <v>1189.798310133254</v>
       </c>
       <c r="W30" t="n">
-        <v>733.4542693559011</v>
+        <v>976.5651418695824</v>
       </c>
       <c r="X30" t="n">
-        <v>557.128287494794</v>
+        <v>800.2391600084752</v>
       </c>
       <c r="Y30" t="n">
-        <v>397.726327858624</v>
+        <v>640.8372003723052</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.450732807975</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="C31" t="n">
-        <v>914.3573603696914</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="D31" t="n">
-        <v>754.8627156926013</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="E31" t="n">
-        <v>593.9519005609209</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="F31" t="n">
-        <v>429.3207746715121</v>
+        <v>198.3679045550574</v>
       </c>
       <c r="G31" t="n">
-        <v>262.968673239406</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I31" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J31" t="n">
-        <v>108.3435995958239</v>
+        <v>43.34223596448755</v>
       </c>
       <c r="K31" t="n">
-        <v>158.9037956488609</v>
+        <v>93.90243201752446</v>
       </c>
       <c r="L31" t="n">
-        <v>235.7152873998965</v>
+        <v>360.1592481229336</v>
       </c>
       <c r="M31" t="n">
-        <v>631.9108510464184</v>
+        <v>756.3548117694554</v>
       </c>
       <c r="N31" t="n">
-        <v>1028.10641469294</v>
+        <v>1152.550375415977</v>
       </c>
       <c r="O31" t="n">
-        <v>1410.279497107659</v>
+        <v>1536.553457313496</v>
       </c>
       <c r="P31" t="n">
-        <v>1461.539486414458</v>
+        <v>1587.813446620294</v>
       </c>
       <c r="Q31" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="R31" t="n">
-        <v>1555.907806650828</v>
+        <v>1555.907806650827</v>
       </c>
       <c r="S31" t="n">
-        <v>1497.886137813255</v>
+        <v>1385.170777116062</v>
       </c>
       <c r="T31" t="n">
-        <v>1497.886137813255</v>
+        <v>1198.70358983309</v>
       </c>
       <c r="U31" t="n">
-        <v>1497.886137813255</v>
+        <v>915.9544399960698</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.886137813255</v>
+        <v>642.0686949355918</v>
       </c>
       <c r="W31" t="n">
-        <v>1497.886137813255</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="X31" t="n">
-        <v>1497.886137813255</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.150439202019</v>
+        <v>362.9990304444661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1196.550217726461</v>
+        <v>849.6428744383212</v>
       </c>
       <c r="C32" t="n">
-        <v>792.3102793053595</v>
+        <v>849.6428744383212</v>
       </c>
       <c r="D32" t="n">
-        <v>388.0703408842576</v>
+        <v>849.6428744383212</v>
       </c>
       <c r="E32" t="n">
-        <v>32.01580312295127</v>
+        <v>445.4029360172194</v>
       </c>
       <c r="F32" t="n">
-        <v>32.01580312295127</v>
+        <v>41.16299759611753</v>
       </c>
       <c r="G32" t="n">
-        <v>32.01580312295127</v>
+        <v>41.16299759611753</v>
       </c>
       <c r="H32" t="n">
-        <v>32.01580312295127</v>
+        <v>41.16299759611753</v>
       </c>
       <c r="I32" t="n">
         <v>32.01580312295127</v>
@@ -6703,16 +6703,16 @@
         <v>126.0098108647276</v>
       </c>
       <c r="K32" t="n">
-        <v>287.4315629263446</v>
+        <v>287.4315629263447</v>
       </c>
       <c r="L32" t="n">
-        <v>502.6347337989644</v>
+        <v>502.6347337989648</v>
       </c>
       <c r="M32" t="n">
-        <v>754.9158487714355</v>
+        <v>754.9158487714361</v>
       </c>
       <c r="N32" t="n">
-        <v>1013.147728329374</v>
+        <v>1013.147728329375</v>
       </c>
       <c r="O32" t="n">
         <v>1251.587988796726</v>
@@ -6727,25 +6727,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S32" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="T32" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430606</v>
       </c>
       <c r="U32" t="n">
-        <v>1600.790156147563</v>
+        <v>1254.242648303352</v>
       </c>
       <c r="V32" t="n">
-        <v>1600.790156147563</v>
+        <v>1253.882812859423</v>
       </c>
       <c r="W32" t="n">
-        <v>1600.790156147563</v>
+        <v>1253.882812859423</v>
       </c>
       <c r="X32" t="n">
-        <v>1600.790156147563</v>
+        <v>1253.882812859423</v>
       </c>
       <c r="Y32" t="n">
-        <v>1600.790156147563</v>
+        <v>1253.882812859423</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>678.6783732107206</v>
+        <v>455.8625789319139</v>
       </c>
       <c r="C33" t="n">
-        <v>544.6833019596662</v>
+        <v>321.8675076808596</v>
       </c>
       <c r="D33" t="n">
-        <v>427.7861441790586</v>
+        <v>321.8675076808596</v>
       </c>
       <c r="E33" t="n">
-        <v>307.2933281713866</v>
+        <v>201.3746916731876</v>
       </c>
       <c r="F33" t="n">
-        <v>198.3334483538912</v>
+        <v>92.41481185569214</v>
       </c>
       <c r="G33" t="n">
         <v>92.41481185569214</v>
@@ -6776,28 +6776,28 @@
         <v>32.01580312295127</v>
       </c>
       <c r="I33" t="n">
-        <v>32.01580312295127</v>
+        <v>47.83672019828929</v>
       </c>
       <c r="J33" t="n">
-        <v>324.0451661675878</v>
+        <v>96.19767926829252</v>
       </c>
       <c r="K33" t="n">
-        <v>574.5465568164238</v>
+        <v>492.3932429148144</v>
       </c>
       <c r="L33" t="n">
-        <v>747.0101274979691</v>
+        <v>664.8568135963596</v>
       </c>
       <c r="M33" t="n">
-        <v>956.1065115119967</v>
+        <v>873.9531976103872</v>
       </c>
       <c r="N33" t="n">
-        <v>1176.572555816044</v>
+        <v>1094.419241914435</v>
       </c>
       <c r="O33" t="n">
-        <v>1369.256897760922</v>
+        <v>1287.103583859313</v>
       </c>
       <c r="P33" t="n">
-        <v>1516.073177694817</v>
+        <v>1433.919863793207</v>
       </c>
       <c r="Q33" t="n">
         <v>1593.998698203967</v>
@@ -6806,25 +6806,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S33" t="n">
-        <v>1512.702346498287</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T33" t="n">
-        <v>1512.702346498287</v>
+        <v>1556.118567342758</v>
       </c>
       <c r="U33" t="n">
-        <v>1315.422027490944</v>
+        <v>1358.838248335415</v>
       </c>
       <c r="V33" t="n">
-        <v>1315.422027490944</v>
+        <v>1145.126721328449</v>
       </c>
       <c r="W33" t="n">
-        <v>1102.188859227273</v>
+        <v>931.8935530647777</v>
       </c>
       <c r="X33" t="n">
-        <v>978.3833654824772</v>
+        <v>755.5675712036705</v>
       </c>
       <c r="Y33" t="n">
-        <v>818.9814058463072</v>
+        <v>596.1656115675005</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>737.0247797411645</v>
+        <v>873.4182317153</v>
       </c>
       <c r="C34" t="n">
-        <v>565.931407302881</v>
+        <v>702.3248592770165</v>
       </c>
       <c r="D34" t="n">
-        <v>406.436762625791</v>
+        <v>542.8302145999264</v>
       </c>
       <c r="E34" t="n">
-        <v>406.436762625791</v>
+        <v>381.9193994682459</v>
       </c>
       <c r="F34" t="n">
-        <v>241.8056367363823</v>
+        <v>381.9193994682459</v>
       </c>
       <c r="G34" t="n">
-        <v>241.8056367363823</v>
+        <v>215.5672980361397</v>
       </c>
       <c r="H34" t="n">
-        <v>121.3478295923054</v>
+        <v>73.94645438903916</v>
       </c>
       <c r="I34" t="n">
         <v>32.01580312295127</v>
       </c>
       <c r="J34" t="n">
-        <v>43.34223596448756</v>
+        <v>108.3435995958239</v>
       </c>
       <c r="K34" t="n">
-        <v>300.1826256032386</v>
+        <v>158.9037956488609</v>
       </c>
       <c r="L34" t="n">
-        <v>690.9732285892973</v>
+        <v>549.6943986349195</v>
       </c>
       <c r="M34" t="n">
-        <v>773.2797814956642</v>
+        <v>945.155610982359</v>
       </c>
       <c r="N34" t="n">
-        <v>856.811566530018</v>
+        <v>1341.351174628881</v>
       </c>
       <c r="O34" t="n">
-        <v>1240.814648427536</v>
+        <v>1410.279497107659</v>
       </c>
       <c r="P34" t="n">
-        <v>1552.972121207453</v>
+        <v>1461.539486414458</v>
       </c>
       <c r="Q34" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="R34" t="n">
-        <v>1555.907806650828</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="S34" t="n">
-        <v>1385.170777116063</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="T34" t="n">
-        <v>1149.460184746444</v>
+        <v>1430.053126612798</v>
       </c>
       <c r="U34" t="n">
-        <v>1149.460184746444</v>
+        <v>1147.303976775778</v>
       </c>
       <c r="V34" t="n">
-        <v>1149.460184746444</v>
+        <v>873.4182317153</v>
       </c>
       <c r="W34" t="n">
-        <v>1149.460184746444</v>
+        <v>873.4182317153</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.460184746444</v>
+        <v>873.4182317153</v>
       </c>
       <c r="Y34" t="n">
-        <v>924.7244861352088</v>
+        <v>873.4182317153</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>322.4153507726936</v>
+        <v>983.1100392913274</v>
       </c>
       <c r="C35" t="n">
-        <v>322.4153507726936</v>
+        <v>983.1100392913274</v>
       </c>
       <c r="D35" t="n">
-        <v>322.4153507726936</v>
+        <v>578.8701008702255</v>
       </c>
       <c r="E35" t="n">
-        <v>322.4153507726936</v>
+        <v>578.8701008702255</v>
       </c>
       <c r="F35" t="n">
-        <v>322.4153507726936</v>
+        <v>174.6301624491237</v>
       </c>
       <c r="G35" t="n">
-        <v>322.4153507726936</v>
+        <v>41.16299759611753</v>
       </c>
       <c r="H35" t="n">
-        <v>32.01580312295127</v>
+        <v>41.16299759611753</v>
       </c>
       <c r="I35" t="n">
         <v>32.01580312295127</v>
@@ -6940,13 +6940,13 @@
         <v>126.0098108647276</v>
       </c>
       <c r="K35" t="n">
-        <v>287.4315629263449</v>
+        <v>287.4315629263447</v>
       </c>
       <c r="L35" t="n">
-        <v>502.634733798965</v>
+        <v>502.6347337989648</v>
       </c>
       <c r="M35" t="n">
-        <v>754.9158487714363</v>
+        <v>754.9158487714361</v>
       </c>
       <c r="N35" t="n">
         <v>1013.147728329375</v>
@@ -6967,22 +6967,22 @@
         <v>1600.790156147563</v>
       </c>
       <c r="T35" t="n">
-        <v>1600.790156147563</v>
+        <v>1387.349977712429</v>
       </c>
       <c r="U35" t="n">
-        <v>1600.790156147563</v>
+        <v>1387.349977712429</v>
       </c>
       <c r="V35" t="n">
-        <v>1507.755722520482</v>
+        <v>1387.349977712429</v>
       </c>
       <c r="W35" t="n">
-        <v>1123.995421655651</v>
+        <v>1387.349977712429</v>
       </c>
       <c r="X35" t="n">
-        <v>723.3520238246035</v>
+        <v>1387.349977712429</v>
       </c>
       <c r="Y35" t="n">
-        <v>322.4153507726936</v>
+        <v>1387.349977712429</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>678.6783732107206</v>
+        <v>345.5111048723139</v>
       </c>
       <c r="C36" t="n">
-        <v>544.6833019596662</v>
+        <v>211.5160336212596</v>
       </c>
       <c r="D36" t="n">
-        <v>427.7861441790586</v>
+        <v>211.5160336212596</v>
       </c>
       <c r="E36" t="n">
-        <v>307.2933281713866</v>
+        <v>91.0232176135876</v>
       </c>
       <c r="F36" t="n">
-        <v>198.3334483538912</v>
+        <v>91.0232176135876</v>
       </c>
       <c r="G36" t="n">
-        <v>92.41481185569214</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H36" t="n">
         <v>32.01580312295127</v>
@@ -7016,28 +7016,28 @@
         <v>47.83672019828929</v>
       </c>
       <c r="J36" t="n">
-        <v>96.19767926829252</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K36" t="n">
-        <v>210.5069651527523</v>
+        <v>486.5768403394426</v>
       </c>
       <c r="L36" t="n">
-        <v>382.9705358342976</v>
+        <v>659.0404110209879</v>
       </c>
       <c r="M36" t="n">
-        <v>592.0669198483251</v>
+        <v>868.1367950350156</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5329641523728</v>
+        <v>1088.602839339063</v>
       </c>
       <c r="O36" t="n">
-        <v>1005.217306097251</v>
+        <v>1281.287181283941</v>
       </c>
       <c r="P36" t="n">
-        <v>1197.803134557445</v>
+        <v>1428.103461217836</v>
       </c>
       <c r="Q36" t="n">
-        <v>1593.998698203967</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R36" t="n">
         <v>1600.790156147563</v>
@@ -7046,22 +7046,22 @@
         <v>1600.790156147563</v>
       </c>
       <c r="T36" t="n">
-        <v>1600.790156147563</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="U36" t="n">
-        <v>1581.654042614222</v>
+        <v>1248.486774275815</v>
       </c>
       <c r="V36" t="n">
-        <v>1367.942515607256</v>
+        <v>1034.775247268849</v>
       </c>
       <c r="W36" t="n">
-        <v>1154.709347343584</v>
+        <v>821.5420790051777</v>
       </c>
       <c r="X36" t="n">
-        <v>978.3833654824772</v>
+        <v>645.2160971440705</v>
       </c>
       <c r="Y36" t="n">
-        <v>818.9814058463072</v>
+        <v>485.8141375079006</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0790960622554</v>
+        <v>534.0924028827496</v>
       </c>
       <c r="C37" t="n">
-        <v>810.0790960622554</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="D37" t="n">
-        <v>650.5844513851655</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="E37" t="n">
-        <v>489.673636253485</v>
+        <v>362.9990304444661</v>
       </c>
       <c r="F37" t="n">
-        <v>429.3207746715121</v>
+        <v>198.3679045550574</v>
       </c>
       <c r="G37" t="n">
-        <v>262.968673239406</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="H37" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I37" t="n">
         <v>32.01580312295127</v>
@@ -7101,16 +7101,16 @@
         <v>93.90243201752449</v>
       </c>
       <c r="L37" t="n">
-        <v>484.6930350035832</v>
+        <v>411.9255432619839</v>
       </c>
       <c r="M37" t="n">
-        <v>880.8885986501051</v>
+        <v>808.1211069085058</v>
       </c>
       <c r="N37" t="n">
-        <v>964.4203836844589</v>
+        <v>891.6528919428596</v>
       </c>
       <c r="O37" t="n">
-        <v>1348.423465581977</v>
+        <v>1275.655973840378</v>
       </c>
       <c r="P37" t="n">
         <v>1587.813446620295</v>
@@ -7122,25 +7122,25 @@
         <v>1555.907806650828</v>
       </c>
       <c r="S37" t="n">
-        <v>1555.907806650828</v>
+        <v>1385.170777116063</v>
       </c>
       <c r="T37" t="n">
-        <v>1555.907806650828</v>
+        <v>1385.170777116063</v>
       </c>
       <c r="U37" t="n">
-        <v>1273.158656813807</v>
+        <v>1102.421627279042</v>
       </c>
       <c r="V37" t="n">
-        <v>1273.158656813807</v>
+        <v>1102.421627279042</v>
       </c>
       <c r="W37" t="n">
-        <v>1273.158656813807</v>
+        <v>823.3519627879168</v>
       </c>
       <c r="X37" t="n">
-        <v>1034.814794673491</v>
+        <v>585.0081006476003</v>
       </c>
       <c r="Y37" t="n">
-        <v>810.0790960622554</v>
+        <v>585.0081006476003</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.01580312295127</v>
+        <v>726.6552891937954</v>
       </c>
       <c r="C38" t="n">
-        <v>32.01580312295127</v>
+        <v>726.6552891937954</v>
       </c>
       <c r="D38" t="n">
-        <v>32.01580312295127</v>
+        <v>726.6552891937954</v>
       </c>
       <c r="E38" t="n">
-        <v>32.01580312295127</v>
+        <v>322.4153507726936</v>
       </c>
       <c r="F38" t="n">
-        <v>32.01580312295127</v>
+        <v>322.4153507726936</v>
       </c>
       <c r="G38" t="n">
-        <v>32.01580312295127</v>
+        <v>322.4153507726936</v>
       </c>
       <c r="H38" t="n">
         <v>32.01580312295127</v>
@@ -7180,10 +7180,10 @@
         <v>287.4315629263447</v>
       </c>
       <c r="L38" t="n">
-        <v>502.6347337989647</v>
+        <v>502.6347337989648</v>
       </c>
       <c r="M38" t="n">
-        <v>754.915848771436</v>
+        <v>754.9158487714361</v>
       </c>
       <c r="N38" t="n">
         <v>1013.147728329375</v>
@@ -7204,22 +7204,22 @@
         <v>1511.142933430606</v>
       </c>
       <c r="T38" t="n">
-        <v>1423.157341609603</v>
+        <v>1297.702754995472</v>
       </c>
       <c r="U38" t="n">
-        <v>1166.25705648235</v>
+        <v>1127.591962245705</v>
       </c>
       <c r="V38" t="n">
-        <v>816.4195018188302</v>
+        <v>1127.591962245705</v>
       </c>
       <c r="W38" t="n">
-        <v>432.6592009539987</v>
+        <v>1127.591962245705</v>
       </c>
       <c r="X38" t="n">
-        <v>32.01580312295127</v>
+        <v>1127.591962245705</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.01580312295127</v>
+        <v>726.6552891937954</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>678.6783732107206</v>
+        <v>542.7914238796569</v>
       </c>
       <c r="C39" t="n">
-        <v>544.6833019596662</v>
+        <v>408.7963526286026</v>
       </c>
       <c r="D39" t="n">
-        <v>427.7861441790586</v>
+        <v>291.899194847995</v>
       </c>
       <c r="E39" t="n">
-        <v>307.2933281713866</v>
+        <v>171.406378840323</v>
       </c>
       <c r="F39" t="n">
-        <v>198.3334483538912</v>
+        <v>171.406378840323</v>
       </c>
       <c r="G39" t="n">
-        <v>92.41481185569214</v>
+        <v>65.48774234212394</v>
       </c>
       <c r="H39" t="n">
         <v>32.01580312295127</v>
       </c>
       <c r="I39" t="n">
-        <v>32.01580312295127</v>
+        <v>47.83672019828929</v>
       </c>
       <c r="J39" t="n">
-        <v>196.5380351125086</v>
+        <v>339.8660832429258</v>
       </c>
       <c r="K39" t="n">
-        <v>310.8473209969684</v>
+        <v>574.5465568164238</v>
       </c>
       <c r="L39" t="n">
-        <v>483.3108916785137</v>
+        <v>747.0101274979691</v>
       </c>
       <c r="M39" t="n">
-        <v>692.4072756925412</v>
+        <v>956.1065115119967</v>
       </c>
       <c r="N39" t="n">
-        <v>1088.602839339063</v>
+        <v>1176.572555816044</v>
       </c>
       <c r="O39" t="n">
-        <v>1281.287181283941</v>
+        <v>1369.256897760922</v>
       </c>
       <c r="P39" t="n">
-        <v>1428.103461217836</v>
+        <v>1516.073177694817</v>
       </c>
       <c r="Q39" t="n">
-        <v>1506.028981726986</v>
+        <v>1593.998698203967</v>
       </c>
       <c r="R39" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S39" t="n">
-        <v>1512.702346498287</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T39" t="n">
-        <v>1357.679283633882</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="U39" t="n">
-        <v>1160.398964626539</v>
+        <v>1445.767093283158</v>
       </c>
       <c r="V39" t="n">
-        <v>1160.398964626539</v>
+        <v>1232.055566276192</v>
       </c>
       <c r="W39" t="n">
-        <v>1154.709347343584</v>
+        <v>1018.822398012521</v>
       </c>
       <c r="X39" t="n">
-        <v>978.3833654824772</v>
+        <v>842.4964161514135</v>
       </c>
       <c r="Y39" t="n">
-        <v>818.9814058463072</v>
+        <v>683.0944565152436</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.450732807975</v>
+        <v>344.7300192083353</v>
       </c>
       <c r="C40" t="n">
-        <v>914.3573603696914</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="D40" t="n">
-        <v>754.8627156926013</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="E40" t="n">
-        <v>593.9519005609209</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="F40" t="n">
-        <v>429.3207746715121</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="G40" t="n">
-        <v>262.968673239406</v>
+        <v>173.6366467700518</v>
       </c>
       <c r="H40" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295127</v>
       </c>
       <c r="I40" t="n">
         <v>32.01580312295127</v>
       </c>
       <c r="J40" t="n">
-        <v>43.34223596448756</v>
+        <v>108.3435995958239</v>
       </c>
       <c r="K40" t="n">
-        <v>300.1826256032386</v>
+        <v>365.183989234575</v>
       </c>
       <c r="L40" t="n">
-        <v>376.9941173542742</v>
+        <v>599.5405937963016</v>
       </c>
       <c r="M40" t="n">
-        <v>773.1896810007961</v>
+        <v>681.8471467026685</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.385244647318</v>
+        <v>765.3789317370223</v>
       </c>
       <c r="O40" t="n">
-        <v>1238.313567126096</v>
+        <v>1149.382013634541</v>
       </c>
       <c r="P40" t="n">
         <v>1461.539486414458</v>
@@ -7362,22 +7362,22 @@
         <v>1600.790156147563</v>
       </c>
       <c r="T40" t="n">
-        <v>1600.790156147563</v>
+        <v>1365.079563777944</v>
       </c>
       <c r="U40" t="n">
-        <v>1600.790156147563</v>
+        <v>1082.330413940924</v>
       </c>
       <c r="V40" t="n">
-        <v>1600.790156147563</v>
+        <v>995.5092863539317</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.790156147563</v>
+        <v>995.5092863539317</v>
       </c>
       <c r="X40" t="n">
-        <v>1497.886137813255</v>
+        <v>757.165424213615</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.150439202019</v>
+        <v>532.4297256023797</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1244.735618386257</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="C41" t="n">
-        <v>840.4956799651551</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="D41" t="n">
-        <v>840.4956799651551</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="E41" t="n">
-        <v>840.4956799651551</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="F41" t="n">
-        <v>436.2557415440532</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G41" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H41" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I41" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J41" t="n">
-        <v>126.0098108647278</v>
+        <v>126.0098108647275</v>
       </c>
       <c r="K41" t="n">
-        <v>287.4315629263448</v>
+        <v>287.4315629263445</v>
       </c>
       <c r="L41" t="n">
-        <v>502.6347337989649</v>
+        <v>502.6347337989645</v>
       </c>
       <c r="M41" t="n">
-        <v>754.9158487714362</v>
+        <v>754.9158487714358</v>
       </c>
       <c r="N41" t="n">
-        <v>1013.147728329375</v>
+        <v>1013.147728329374</v>
       </c>
       <c r="O41" t="n">
         <v>1251.587988796726</v>
       </c>
       <c r="P41" t="n">
-        <v>1441.118329247342</v>
+        <v>1441.118329247341</v>
       </c>
       <c r="Q41" t="n">
-        <v>1563.937759369403</v>
+        <v>1563.937759369402</v>
       </c>
       <c r="R41" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S41" t="n">
-        <v>1600.790156147563</v>
+        <v>1511.142933430605</v>
       </c>
       <c r="T41" t="n">
-        <v>1387.34997771243</v>
+        <v>1297.702754995471</v>
       </c>
       <c r="U41" t="n">
-        <v>1387.34997771243</v>
+        <v>1040.802469868217</v>
       </c>
       <c r="V41" t="n">
-        <v>1387.34997771243</v>
+        <v>690.9649152046977</v>
       </c>
       <c r="W41" t="n">
-        <v>1387.34997771243</v>
+        <v>690.9649152046977</v>
       </c>
       <c r="X41" t="n">
-        <v>1387.34997771243</v>
+        <v>690.9649152046977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1387.34997771243</v>
+        <v>290.0282421527878</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>678.6783732107206</v>
+        <v>618.2793644779797</v>
       </c>
       <c r="C42" t="n">
-        <v>544.6833019596662</v>
+        <v>484.2842932269253</v>
       </c>
       <c r="D42" t="n">
-        <v>427.7861441790586</v>
+        <v>367.3871354463178</v>
       </c>
       <c r="E42" t="n">
-        <v>307.2933281713866</v>
+        <v>246.8943194386457</v>
       </c>
       <c r="F42" t="n">
-        <v>198.3334483538912</v>
+        <v>137.9344396211503</v>
       </c>
       <c r="G42" t="n">
-        <v>92.41481185569214</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H42" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I42" t="n">
-        <v>47.83672019828929</v>
+        <v>47.83672019828926</v>
       </c>
       <c r="J42" t="n">
-        <v>284.5077515894899</v>
+        <v>339.8660832429257</v>
       </c>
       <c r="K42" t="n">
-        <v>398.8170374739497</v>
+        <v>454.1753691273854</v>
       </c>
       <c r="L42" t="n">
-        <v>571.280608155495</v>
+        <v>626.6389398089307</v>
       </c>
       <c r="M42" t="n">
-        <v>780.3769921695225</v>
+        <v>835.7353238229582</v>
       </c>
       <c r="N42" t="n">
-        <v>1176.572555816045</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O42" t="n">
-        <v>1369.256897760923</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P42" t="n">
-        <v>1516.073177694817</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q42" t="n">
-        <v>1593.998698203968</v>
+        <v>1593.998698203967</v>
       </c>
       <c r="R42" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S42" t="n">
-        <v>1512.702346498287</v>
+        <v>1535.975064110299</v>
       </c>
       <c r="T42" t="n">
-        <v>1357.679283633882</v>
+        <v>1380.952001245894</v>
       </c>
       <c r="U42" t="n">
-        <v>1160.398964626539</v>
+        <v>1380.952001245894</v>
       </c>
       <c r="V42" t="n">
-        <v>946.6874376195726</v>
+        <v>1167.240474238928</v>
       </c>
       <c r="W42" t="n">
-        <v>946.6874376195726</v>
+        <v>954.0073059752569</v>
       </c>
       <c r="X42" t="n">
-        <v>946.6874376195726</v>
+        <v>777.6813241141497</v>
       </c>
       <c r="Y42" t="n">
-        <v>818.9814058463072</v>
+        <v>618.2793644779797</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>457.0723279199976</v>
+        <v>356.14157368945</v>
       </c>
       <c r="C43" t="n">
-        <v>285.9789554817141</v>
+        <v>356.14157368945</v>
       </c>
       <c r="D43" t="n">
-        <v>285.9789554817141</v>
+        <v>196.64692901236</v>
       </c>
       <c r="E43" t="n">
-        <v>285.9789554817141</v>
+        <v>196.64692901236</v>
       </c>
       <c r="F43" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G43" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H43" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I43" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J43" t="n">
-        <v>43.34223596448756</v>
+        <v>108.3435995958239</v>
       </c>
       <c r="K43" t="n">
-        <v>300.1826256032386</v>
+        <v>365.183989234575</v>
       </c>
       <c r="L43" t="n">
-        <v>690.9732285892973</v>
+        <v>599.5405937963011</v>
       </c>
       <c r="M43" t="n">
-        <v>1069.018590381624</v>
+        <v>681.8471467026681</v>
       </c>
       <c r="N43" t="n">
-        <v>1152.550375415978</v>
+        <v>765.3789317370218</v>
       </c>
       <c r="O43" t="n">
-        <v>1536.553457313496</v>
+        <v>1149.38201363454</v>
       </c>
       <c r="P43" t="n">
-        <v>1587.813446620295</v>
+        <v>1461.539486414457</v>
       </c>
       <c r="Q43" t="n">
         <v>1600.790156147563</v>
@@ -7596,25 +7596,25 @@
         <v>1600.790156147563</v>
       </c>
       <c r="S43" t="n">
-        <v>1431.326547253424</v>
+        <v>1559.87625038665</v>
       </c>
       <c r="T43" t="n">
-        <v>1431.326547253424</v>
+        <v>1559.87625038665</v>
       </c>
       <c r="U43" t="n">
-        <v>1148.577397416403</v>
+        <v>1559.87625038665</v>
       </c>
       <c r="V43" t="n">
-        <v>1148.577397416403</v>
+        <v>1285.990505326172</v>
       </c>
       <c r="W43" t="n">
-        <v>869.5077329252773</v>
+        <v>1006.920840835046</v>
       </c>
       <c r="X43" t="n">
-        <v>869.5077329252773</v>
+        <v>768.5769786947296</v>
       </c>
       <c r="Y43" t="n">
-        <v>644.772034314042</v>
+        <v>543.8412800834943</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1253.882812859423</v>
+        <v>1130.895227614897</v>
       </c>
       <c r="C44" t="n">
-        <v>849.6428744383213</v>
+        <v>1130.895227614897</v>
       </c>
       <c r="D44" t="n">
-        <v>445.4029360172194</v>
+        <v>726.6552891937954</v>
       </c>
       <c r="E44" t="n">
-        <v>445.4029360172194</v>
+        <v>322.4153507726937</v>
       </c>
       <c r="F44" t="n">
-        <v>41.16299759611753</v>
+        <v>322.4153507726937</v>
       </c>
       <c r="G44" t="n">
-        <v>41.16299759611753</v>
+        <v>322.4153507726937</v>
       </c>
       <c r="H44" t="n">
-        <v>41.16299759611753</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I44" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J44" t="n">
-        <v>126.0098108647281</v>
+        <v>126.0098108647276</v>
       </c>
       <c r="K44" t="n">
-        <v>287.431562926345</v>
+        <v>287.4315629263445</v>
       </c>
       <c r="L44" t="n">
-        <v>502.634733798965</v>
+        <v>502.6347337989644</v>
       </c>
       <c r="M44" t="n">
-        <v>754.9158487714363</v>
+        <v>754.9158487714355</v>
       </c>
       <c r="N44" t="n">
-        <v>1013.147728329375</v>
+        <v>1013.147728329374</v>
       </c>
       <c r="O44" t="n">
         <v>1251.587988796726</v>
       </c>
       <c r="P44" t="n">
-        <v>1441.118329247342</v>
+        <v>1441.118329247341</v>
       </c>
       <c r="Q44" t="n">
-        <v>1563.937759369403</v>
+        <v>1563.937759369402</v>
       </c>
       <c r="R44" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S44" t="n">
-        <v>1600.790156147563</v>
+        <v>1531.538625445944</v>
       </c>
       <c r="T44" t="n">
-        <v>1600.790156147563</v>
+        <v>1531.538625445944</v>
       </c>
       <c r="U44" t="n">
-        <v>1600.790156147563</v>
+        <v>1531.538625445944</v>
       </c>
       <c r="V44" t="n">
-        <v>1600.790156147563</v>
+        <v>1531.538625445944</v>
       </c>
       <c r="W44" t="n">
-        <v>1600.790156147563</v>
+        <v>1531.538625445944</v>
       </c>
       <c r="X44" t="n">
-        <v>1600.790156147563</v>
+        <v>1130.895227614897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1600.790156147563</v>
+        <v>1130.895227614897</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>588.7723399485499</v>
+        <v>678.6783732107206</v>
       </c>
       <c r="C45" t="n">
-        <v>454.7772686974956</v>
+        <v>544.6833019596662</v>
       </c>
       <c r="D45" t="n">
-        <v>337.880110916888</v>
+        <v>427.7861441790586</v>
       </c>
       <c r="E45" t="n">
-        <v>217.387294909216</v>
+        <v>307.2933281713866</v>
       </c>
       <c r="F45" t="n">
-        <v>108.4274150917205</v>
+        <v>198.3334483538912</v>
       </c>
       <c r="G45" t="n">
         <v>92.41481185569214</v>
       </c>
       <c r="H45" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I45" t="n">
-        <v>47.83672019828929</v>
+        <v>47.83672019828926</v>
       </c>
       <c r="J45" t="n">
-        <v>96.19767926829252</v>
+        <v>339.8660832429257</v>
       </c>
       <c r="K45" t="n">
-        <v>210.5069651527523</v>
+        <v>454.1753691273854</v>
       </c>
       <c r="L45" t="n">
-        <v>382.9705358342976</v>
+        <v>626.6389398089307</v>
       </c>
       <c r="M45" t="n">
-        <v>592.0669198483251</v>
+        <v>835.7353238229582</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5329641523728</v>
+        <v>1056.201368127006</v>
       </c>
       <c r="O45" t="n">
-        <v>1005.217306097251</v>
+        <v>1248.885710071884</v>
       </c>
       <c r="P45" t="n">
-        <v>1152.033586031145</v>
+        <v>1395.701990005778</v>
       </c>
       <c r="Q45" t="n">
-        <v>1506.028981726987</v>
+        <v>1506.028981726986</v>
       </c>
       <c r="R45" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="S45" t="n">
-        <v>1512.702346498287</v>
+        <v>1512.702346498286</v>
       </c>
       <c r="T45" t="n">
-        <v>1512.702346498287</v>
+        <v>1357.679283633881</v>
       </c>
       <c r="U45" t="n">
-        <v>1315.422027490944</v>
+        <v>1160.398964626538</v>
       </c>
       <c r="V45" t="n">
-        <v>1101.710500483978</v>
+        <v>1154.709347343584</v>
       </c>
       <c r="W45" t="n">
-        <v>888.4773322203065</v>
+        <v>1154.709347343584</v>
       </c>
       <c r="X45" t="n">
-        <v>888.4773322203065</v>
+        <v>978.3833654824772</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.0753725841365</v>
+        <v>818.9814058463072</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1085.450732807975</v>
+        <v>528.651116582324</v>
       </c>
       <c r="C46" t="n">
-        <v>914.3573603696914</v>
+        <v>357.5577441440405</v>
       </c>
       <c r="D46" t="n">
-        <v>754.8627156926013</v>
+        <v>357.5577441440405</v>
       </c>
       <c r="E46" t="n">
-        <v>593.9519005609209</v>
+        <v>196.64692901236</v>
       </c>
       <c r="F46" t="n">
-        <v>429.3207746715121</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="G46" t="n">
-        <v>262.968673239406</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="H46" t="n">
-        <v>121.3478295923054</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="I46" t="n">
-        <v>32.01580312295127</v>
+        <v>32.01580312295125</v>
       </c>
       <c r="J46" t="n">
-        <v>43.34223596448756</v>
+        <v>78.18356137732866</v>
       </c>
       <c r="K46" t="n">
-        <v>93.90243201752449</v>
+        <v>335.0239510160797</v>
       </c>
       <c r="L46" t="n">
-        <v>360.1592481229341</v>
+        <v>725.8145540021384</v>
       </c>
       <c r="M46" t="n">
-        <v>756.3548117694561</v>
+        <v>808.1211069085053</v>
       </c>
       <c r="N46" t="n">
-        <v>1152.550375415978</v>
+        <v>891.6528919428591</v>
       </c>
       <c r="O46" t="n">
-        <v>1536.553457313496</v>
+        <v>1275.655973840378</v>
       </c>
       <c r="P46" t="n">
-        <v>1587.813446620295</v>
+        <v>1587.813446620294</v>
       </c>
       <c r="Q46" t="n">
         <v>1600.790156147563</v>
       </c>
       <c r="R46" t="n">
-        <v>1555.907806650828</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="S46" t="n">
-        <v>1385.170777116063</v>
+        <v>1600.790156147563</v>
       </c>
       <c r="T46" t="n">
-        <v>1385.170777116063</v>
+        <v>1458.500048219046</v>
       </c>
       <c r="U46" t="n">
-        <v>1385.170777116063</v>
+        <v>1458.500048219046</v>
       </c>
       <c r="V46" t="n">
-        <v>1385.170777116063</v>
+        <v>1458.500048219046</v>
       </c>
       <c r="W46" t="n">
-        <v>1385.170777116063</v>
+        <v>1179.43038372792</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.170777116063</v>
+        <v>941.0865215876037</v>
       </c>
       <c r="Y46" t="n">
-        <v>1160.435078504828</v>
+        <v>716.3508229763684</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>19.13988639553256</v>
       </c>
       <c r="L3" t="n">
-        <v>6.785808794917678</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>3.697650023750555</v>
       </c>
       <c r="P3" t="n">
-        <v>10.87667177962184</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.69225648436267</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R3" t="n">
         <v>44.89460795773296</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.784734115514517</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.5677825902786</v>
+        <v>32.72875880005751</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>179.0968727735399</v>
       </c>
       <c r="L13" t="n">
-        <v>177.9901574364515</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
         <v>317.0596068082373</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.566890607721</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1305929670361</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>32.72875880005751</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>317.0596068082373</v>
+        <v>245.9924240455835</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>315.8219985981495</v>
       </c>
       <c r="O16" t="n">
-        <v>160.3342035245217</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>137.5677825902787</v>
+        <v>32.72875880005704</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>159.1364775865558</v>
       </c>
       <c r="M19" t="n">
-        <v>317.0596068082372</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>225.9921465864774</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>32.72875880005725</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>188.9890703358527</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>177.5045649923982</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.20384824650576</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>191.3589134892663</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>317.0596068082372</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>315.8219985981494</v>
+        <v>315.8219985981495</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>235.5034606678741</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1305929670357</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>205.5668906077209</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>32.72875880005729</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>116.0076351441596</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>287.7926476770152</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>137.5677825902791</v>
+        <v>32.72875880005729</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>317.0596068082373</v>
+        <v>317.0596068082372</v>
       </c>
       <c r="N28" t="n">
         <v>315.8219985981495</v>
       </c>
       <c r="O28" t="n">
-        <v>318.2573327462026</v>
+        <v>192.4656288263546</v>
       </c>
       <c r="P28" t="n">
-        <v>63.80945873589562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>32.72875880005725</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>121.5870582717559</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>191.3589134892662</v>
       </c>
       <c r="M31" t="n">
-        <v>317.0596068082373</v>
+        <v>317.0596068082372</v>
       </c>
       <c r="N31" t="n">
-        <v>315.8219985981496</v>
+        <v>315.8219985981494</v>
       </c>
       <c r="O31" t="n">
-        <v>316.4088484201422</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.5677825902791</v>
+        <v>284.7336139010729</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.98314535516118</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>316.3178378192652</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>315.8219985981495</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.19325799276916</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>32.72875880005765</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>46.23186719828311</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>321.4848920579506</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>243.6481004984079</v>
       </c>
       <c r="M37" t="n">
         <v>317.0596068082373</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>190.0302946783019</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.784734115514524</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>117.3346191106607</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>121.5870582717558</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>177.5045649923983</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>159.1364775865565</v>
       </c>
       <c r="M40" t="n">
-        <v>317.0596068082373</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>315.8219985981496</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>173.7029595773363</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>190.2121942638358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>177.5045649923983</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>121.5870582717555</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>159.1364775865561</v>
       </c>
       <c r="M43" t="n">
-        <v>298.7260695817778</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>278.8584597845359</v>
+        <v>32.72875880005732</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>35.19325799276881</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>191.3589134892667</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>317.0596068082373</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>315.8219985981497</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.216388044107878</v>
+        <v>4.216388044107873</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>5.921428830953744</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>5.825805742971738</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0.2217515709792224</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>16.62256888895848</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6584444273007</v>
+        <v>59.22017457204197</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>287.4955521732449</v>
       </c>
       <c r="I11" t="n">
-        <v>9.055722528434586</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.3057766507825</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V11" t="n">
-        <v>35.33347024920602</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23390,10 +23390,10 @@
         <v>87.20693155278383</v>
       </c>
       <c r="T12" t="n">
-        <v>153.472832235761</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>176.3627634192616</v>
+        <v>195.3075158172695</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>134.528079837753</v>
       </c>
     </row>
     <row r="13">
@@ -23421,22 +23421,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6885804177851</v>
+        <v>47.84681947147074</v>
       </c>
       <c r="H13" t="n">
         <v>140.2046352106296</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.43352600176804</v>
       </c>
       <c r="S13" t="n">
-        <v>45.47670571105404</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3534864459227</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2217515709792224</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>9.999274291381425</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6584444273007</v>
+        <v>31.70836301403023</v>
       </c>
       <c r="H14" t="n">
-        <v>287.4955521732449</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.0557225284346</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.3057766507825</v>
       </c>
       <c r="U14" t="n">
         <v>254.3312822759814</v>
       </c>
       <c r="V14" t="n">
-        <v>181.3155470191116</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>112.2326369698008</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.79501864541346</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>87.20693155278383</v>
       </c>
       <c r="T15" t="n">
-        <v>153.472832235761</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>176.3627634192616</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,7 +23664,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>1.115344604855466</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.2232404594492</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>5.921428830953857</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2217515709793361</v>
+        <v>384.1765230902926</v>
       </c>
       <c r="E17" t="n">
-        <v>9.999274291381539</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>16.6225688889586</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16445204360722</v>
+        <v>402.6584444273007</v>
       </c>
       <c r="H17" t="n">
         <v>287.4955521732449</v>
       </c>
       <c r="I17" t="n">
-        <v>9.0557225284346</v>
+        <v>9.055722528434586</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.3057766507825</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,10 +23797,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.67186512550244</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>31.37896858427607</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6885804177851</v>
+        <v>46.81718303995879</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2046352106296</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>88.43870620466059</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.43352600176805</v>
+        <v>44.43352600176804</v>
       </c>
       <c r="S19" t="n">
-        <v>135.0928151297486</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9216583386502</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.921428830953857</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>5.825805742971852</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23980,7 +23980,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>16.6225688889586</v>
+        <v>286.9792088665121</v>
       </c>
       <c r="G20" t="n">
         <v>402.6584444273007</v>
@@ -23989,7 +23989,7 @@
         <v>287.4955521732449</v>
       </c>
       <c r="I20" t="n">
-        <v>9.0557225284346</v>
+        <v>9.055722528434586</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.3057766507825</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.7645962136789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.8594501332171</v>
       </c>
       <c r="H21" t="n">
-        <v>31.37896858427619</v>
+        <v>59.79501864541346</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.20693155278383</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>57.31084585707139</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>53.07993238962608</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6885804177851</v>
       </c>
       <c r="H22" t="n">
         <v>140.2046352106296</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.43352600176805</v>
+        <v>44.43352600176804</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>40.9938661212019</v>
       </c>
       <c r="U22" t="n">
         <v>279.9216583386502</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.921428830953857</v>
+        <v>53.62497548415126</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>5.825805742971852</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>9.999274291381539</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>16.6225688889586</v>
       </c>
       <c r="G23" t="n">
-        <v>22.65264048559584</v>
+        <v>402.6584444273007</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.4955521732449</v>
       </c>
       <c r="I23" t="n">
         <v>9.0557225284346</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T23" t="n">
         <v>211.3057766507825</v>
@@ -24271,7 +24271,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>98.91522619341515</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.8594501332171</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.79501864541346</v>
+        <v>16.37287130329616</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>87.20693155278383</v>
       </c>
       <c r="T24" t="n">
-        <v>153.472832235761</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6885804177851</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>13.28935911946549</v>
+        <v>44.43352600176805</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3534864459227</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9216583386502</v>
+        <v>259.0464755478667</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.921428830953744</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2217515709792224</v>
+        <v>0.2217515709793361</v>
       </c>
       <c r="E26" t="n">
-        <v>380.5100125296406</v>
+        <v>9.999274291381539</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6584444273007</v>
+        <v>2.460905390409948</v>
       </c>
       <c r="H26" t="n">
         <v>287.4955521732449</v>
       </c>
       <c r="I26" t="n">
-        <v>9.0557225284346</v>
+        <v>2.90090926162535</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.750750489788</v>
       </c>
       <c r="T26" t="n">
         <v>211.3057766507825</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3312822759814</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>87.20693155278383</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>57.31084585707183</v>
       </c>
       <c r="U27" t="n">
-        <v>144.5177774098553</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>93.51817270096709</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2046352106296</v>
       </c>
       <c r="I28" t="n">
         <v>88.43870620466059</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.43352600176805</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.0296592394172</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3534864459227</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9216583386502</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>139.3562085266443</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>204.2546706796589</v>
       </c>
       <c r="C29" t="n">
-        <v>49.96877721201531</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2217515709792224</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>9.999274291381425</v>
+        <v>9.999274291381539</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.3057766507825</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>116.5677447738485</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>25.22988956226</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.8594501332171</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>59.79501864541346</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>87.20693155278383</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>153.472832235761</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2046352106296</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>111.5882070902198</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3534864459227</v>
+        <v>48.75097103578022</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9216583386502</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>5.921428830953744</v>
       </c>
       <c r="C32" t="n">
-        <v>5.825805742971738</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2217515709792224</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>57.70282094457895</v>
+        <v>9.999274291381425</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>16.62256888895848</v>
       </c>
       <c r="G32" t="n">
         <v>402.6584444273007</v>
@@ -24937,7 +24937,7 @@
         <v>287.4955521732449</v>
       </c>
       <c r="I32" t="n">
-        <v>9.0557225284346</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>211.3057766507825</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>345.9829420273948</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.8594501332171</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>87.20693155278383</v>
       </c>
       <c r="T33" t="n">
-        <v>153.472832235761</v>
+        <v>109.2479593190041</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>51.99528323514868</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6885804177851</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>20.95140613799347</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>46.92736145123358</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.43352600176805</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3534864459227</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9216583386502</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>5.921428830953744</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0.2217515709792224</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>16.62256888895848</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6584444273007</v>
+        <v>270.5259512228246</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.4955521732449</v>
       </c>
       <c r="I35" t="n">
-        <v>9.0557225284346</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>88.750750489788</v>
       </c>
       <c r="T35" t="n">
-        <v>211.3057766507825</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3312822759814</v>
       </c>
       <c r="V35" t="n">
-        <v>254.235089826074</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>46.44210978748711</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.79501864541346</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>87.20693155278383</v>
       </c>
       <c r="T36" t="n">
-        <v>153.472832235761</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>176.3627634192616</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>135.4161685429018</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>103.2354816643615</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2046352106296</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>169.0296592394172</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3534864459227</v>
@@ -25374,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>9.999274291381425</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25408,7 +25408,7 @@
         <v>402.6584444273007</v>
       </c>
       <c r="H38" t="n">
-        <v>287.4955521732449</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>9.0557225284346</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>124.2000407479905</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>85.92159745371279</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>26.65779881843252</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>87.20693155278383</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3075158172695</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>205.4681154709098</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6885804177851</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>169.0296592394172</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3534864459227</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9216583386502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>185.1939712987508</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>134.085445367948</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>264.9307521349339</v>
+        <v>150.6866532283064</v>
       </c>
       <c r="C41" t="n">
-        <v>5.825805742971681</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25639,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>16.62256888895843</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>2.460905390409778</v>
+        <v>402.6584444273007</v>
       </c>
       <c r="H41" t="n">
-        <v>287.4955521732449</v>
+        <v>287.495552173245</v>
       </c>
       <c r="I41" t="n">
         <v>9.0557225284346</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.750750489788</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3312822759814</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.79501864541346</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>23.03999043589327</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3075158172695</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.37896858427553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25806,7 +25806,7 @@
         <v>140.2046352106296</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.43352600176805</v>
+        <v>44.43352600176806</v>
       </c>
       <c r="S43" t="n">
-        <v>1.260686434218627</v>
+        <v>128.5248925361136</v>
       </c>
       <c r="T43" t="n">
         <v>233.3534864459227</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9216583386502</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>62.68069801258571</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>5.825805742971681</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2217515709791655</v>
+        <v>0.2217515709793929</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>9.999274291381596</v>
       </c>
       <c r="F44" t="n">
-        <v>16.62256888895843</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.6584444273007</v>
       </c>
       <c r="H44" t="n">
-        <v>287.4955521732449</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.0557225284346</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.750750489788</v>
+        <v>20.19173509518609</v>
       </c>
       <c r="T44" t="n">
         <v>211.3057766507825</v>
@@ -25930,7 +25930,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>89.00697292954895</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.472832235761</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.9416906267725</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.5882070902196</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6885804177851</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2046352106296</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.43870620466059</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.43352600176806</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.0296592394172</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3534864459227</v>
+        <v>92.48627959669125</v>
       </c>
       <c r="U46" t="n">
         <v>279.9216583386502</v>
@@ -26085,10 +26085,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403958.0262903916</v>
+        <v>403958.0262903917</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403958.0262903916</v>
+        <v>403958.0262903917</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>403958.0262903917</v>
+        <v>403958.0262903916</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>403958.0262903917</v>
+        <v>403958.0262903916</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>403958.0262903916</v>
+        <v>403958.0262903917</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>403958.0262903916</v>
+        <v>403958.0262903917</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403958.0262903917</v>
+        <v>403958.0262903916</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403958.0262903917</v>
+        <v>403958.0262903916</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405027.1856815903</v>
+        <v>405027.1856815906</v>
       </c>
       <c r="C2" t="n">
         <v>405028.6307417877</v>
@@ -26325,19 +26325,19 @@
         <v>212849.8105096626</v>
       </c>
       <c r="F2" t="n">
-        <v>212849.8105096627</v>
+        <v>212849.8105096626</v>
       </c>
       <c r="G2" t="n">
         <v>212849.8105096626</v>
       </c>
       <c r="H2" t="n">
-        <v>212849.8105096625</v>
+        <v>212849.8105096626</v>
       </c>
       <c r="I2" t="n">
         <v>212849.8105096626</v>
       </c>
       <c r="J2" t="n">
-        <v>212849.8105096627</v>
+        <v>212849.8105096626</v>
       </c>
       <c r="K2" t="n">
         <v>212849.8105096627</v>
@@ -26349,10 +26349,10 @@
         <v>212849.8105096626</v>
       </c>
       <c r="N2" t="n">
+        <v>212849.8105096627</v>
+      </c>
+      <c r="O2" t="n">
         <v>212849.8105096626</v>
-      </c>
-      <c r="O2" t="n">
-        <v>212849.8105096627</v>
       </c>
       <c r="P2" t="n">
         <v>212849.8105096626</v>
@@ -26368,10 +26368,10 @@
         <v>101779.2516440874</v>
       </c>
       <c r="C3" t="n">
-        <v>6579.373527278881</v>
+        <v>6579.373527278807</v>
       </c>
       <c r="D3" t="n">
-        <v>6255.640331017298</v>
+        <v>6255.640331017285</v>
       </c>
       <c r="E3" t="n">
         <v>419166.5018042356</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99730.82751814934</v>
+        <v>99730.82751814932</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>325833.5924255837</v>
       </c>
       <c r="E4" t="n">
-        <v>21175.39927533496</v>
+        <v>21175.39927533497</v>
       </c>
       <c r="F4" t="n">
         <v>21175.39927533497</v>
       </c>
       <c r="G4" t="n">
-        <v>21175.39927533496</v>
+        <v>21175.39927533495</v>
       </c>
       <c r="H4" t="n">
-        <v>21175.39927533496</v>
+        <v>21175.39927533497</v>
       </c>
       <c r="I4" t="n">
         <v>21175.39927533496</v>
       </c>
       <c r="J4" t="n">
-        <v>21175.39927533498</v>
+        <v>21175.39927533497</v>
       </c>
       <c r="K4" t="n">
-        <v>21175.39927533498</v>
+        <v>21175.39927533496</v>
       </c>
       <c r="L4" t="n">
         <v>21175.39927533498</v>
       </c>
       <c r="M4" t="n">
+        <v>21175.39927533498</v>
+      </c>
+      <c r="N4" t="n">
         <v>21175.39927533497</v>
       </c>
-      <c r="N4" t="n">
-        <v>21175.39927533498</v>
-      </c>
       <c r="O4" t="n">
-        <v>21175.39927533498</v>
+        <v>21175.39927533496</v>
       </c>
       <c r="P4" t="n">
-        <v>21175.39927533498</v>
+        <v>21175.39927533497</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>36246.92010144652</v>
       </c>
       <c r="E5" t="n">
-        <v>35082.92047102119</v>
+        <v>35082.92047102118</v>
       </c>
       <c r="F5" t="n">
         <v>35082.92047102118</v>
       </c>
       <c r="G5" t="n">
-        <v>35082.92047102117</v>
+        <v>35082.92047102118</v>
       </c>
       <c r="H5" t="n">
-        <v>35082.92047102117</v>
+        <v>35082.92047102118</v>
       </c>
       <c r="I5" t="n">
         <v>35082.92047102117</v>
       </c>
       <c r="J5" t="n">
-        <v>35082.92047102118</v>
+        <v>35082.92047102117</v>
       </c>
       <c r="K5" t="n">
-        <v>35082.92047102118</v>
+        <v>35082.92047102117</v>
       </c>
       <c r="L5" t="n">
         <v>35082.92047102118</v>
@@ -26508,10 +26508,10 @@
         <v>35082.92047102118</v>
       </c>
       <c r="O5" t="n">
-        <v>35082.92047102119</v>
+        <v>35082.92047102117</v>
       </c>
       <c r="P5" t="n">
-        <v>35082.92047102119</v>
+        <v>35082.92047102117</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62380.83128088556</v>
+        <v>-62389.54646848348</v>
       </c>
       <c r="C6" t="n">
-        <v>34622.39114497503</v>
+        <v>34613.68173761766</v>
       </c>
       <c r="D6" t="n">
-        <v>36693.93877539528</v>
+        <v>36685.23521160452</v>
       </c>
       <c r="E6" t="n">
-        <v>-262575.0110409292</v>
+        <v>-263352.435729215</v>
       </c>
       <c r="F6" t="n">
-        <v>156591.4907633065</v>
+        <v>155814.0660750206</v>
       </c>
       <c r="G6" t="n">
-        <v>156591.4907633065</v>
+        <v>155814.0660750205</v>
       </c>
       <c r="H6" t="n">
-        <v>156591.4907633064</v>
+        <v>155814.0660750206</v>
       </c>
       <c r="I6" t="n">
-        <v>156591.4907633064</v>
+        <v>155814.0660750205</v>
       </c>
       <c r="J6" t="n">
-        <v>156591.4907633065</v>
+        <v>155814.0660750205</v>
       </c>
       <c r="K6" t="n">
-        <v>156591.4907633066</v>
+        <v>155814.0660750206</v>
       </c>
       <c r="L6" t="n">
-        <v>156591.4907633064</v>
+        <v>155814.0660750205</v>
       </c>
       <c r="M6" t="n">
-        <v>56860.66324515712</v>
+        <v>56083.23855687124</v>
       </c>
       <c r="N6" t="n">
-        <v>156591.4907633064</v>
+        <v>155814.0660750206</v>
       </c>
       <c r="O6" t="n">
-        <v>156591.4907633065</v>
+        <v>155814.0660750206</v>
       </c>
       <c r="P6" t="n">
-        <v>156591.4907633064</v>
+        <v>155814.0660750205</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>493.1610136503771</v>
       </c>
       <c r="F3" t="n">
-        <v>493.161013650377</v>
+        <v>493.1610136503771</v>
       </c>
       <c r="G3" t="n">
-        <v>493.161013650377</v>
+        <v>493.1610136503771</v>
       </c>
       <c r="H3" t="n">
-        <v>493.161013650377</v>
+        <v>493.1610136503771</v>
       </c>
       <c r="I3" t="n">
         <v>493.161013650377</v>
@@ -26807,16 +26807,16 @@
         <v>400.1975390368907</v>
       </c>
       <c r="H4" t="n">
-        <v>400.1975390368907</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="I4" t="n">
         <v>400.1975390368907</v>
       </c>
       <c r="J4" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="K4" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="L4" t="n">
         <v>400.1975390368908</v>
@@ -26828,10 +26828,10 @@
         <v>400.1975390368908</v>
       </c>
       <c r="O4" t="n">
-        <v>400.1975390368909</v>
+        <v>400.1975390368906</v>
       </c>
       <c r="P4" t="n">
-        <v>400.1975390368909</v>
+        <v>400.1975390368906</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>7.225300984709904</v>
       </c>
       <c r="D3" t="n">
-        <v>7.304458277208568</v>
+        <v>7.304458277208553</v>
       </c>
       <c r="E3" t="n">
-        <v>373.0087154188854</v>
+        <v>373.0087154188853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368909</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368909</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31126,7 +31126,7 @@
         <v>2.194158781235853</v>
       </c>
       <c r="I3" t="n">
-        <v>7.82204651802972</v>
+        <v>7.822046518029719</v>
       </c>
       <c r="J3" t="n">
         <v>21.46429350890168</v>
@@ -31150,13 +31150,13 @@
         <v>43.3829632231819</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.00036202047605</v>
+        <v>29.00036202047604</v>
       </c>
       <c r="R3" t="n">
         <v>14.10559114767245</v>
       </c>
       <c r="S3" t="n">
-        <v>4.219919363548514</v>
+        <v>4.219919363548515</v>
       </c>
       <c r="T3" t="n">
         <v>0.9157274840852623</v>
@@ -31205,7 +31205,7 @@
         <v>1.693423657577749</v>
       </c>
       <c r="I4" t="n">
-        <v>5.727858342808991</v>
+        <v>5.72785834280899</v>
       </c>
       <c r="J4" t="n">
         <v>13.46600796010445</v>
@@ -31214,10 +31214,10 @@
         <v>22.12878767264174</v>
       </c>
       <c r="L4" t="n">
-        <v>28.31722954603937</v>
+        <v>28.31722954603936</v>
       </c>
       <c r="M4" t="n">
-        <v>29.85654818774347</v>
+        <v>29.85654818774346</v>
       </c>
       <c r="N4" t="n">
         <v>29.14662620450537</v>
@@ -31767,13 +31767,13 @@
         <v>252.1886644829313</v>
       </c>
       <c r="L11" t="n">
-        <v>312.8623383382187</v>
+        <v>312.8623383382186</v>
       </c>
       <c r="M11" t="n">
-        <v>348.1196335201479</v>
+        <v>348.1196335201478</v>
       </c>
       <c r="N11" t="n">
-        <v>353.7525731383756</v>
+        <v>353.7525731383755</v>
       </c>
       <c r="O11" t="n">
         <v>334.0385235726029</v>
@@ -31788,7 +31788,7 @@
         <v>124.536786024987</v>
       </c>
       <c r="S11" t="n">
-        <v>45.17751396405215</v>
+        <v>45.17751396405214</v>
       </c>
       <c r="T11" t="n">
         <v>8.678642561827237</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.060761425587604</v>
+        <v>1.060761425587603</v>
       </c>
       <c r="H12" t="n">
         <v>10.24472218922765</v>
@@ -31843,7 +31843,7 @@
         <v>100.2186924060639</v>
       </c>
       <c r="K12" t="n">
-        <v>171.2897079204334</v>
+        <v>171.2897079204333</v>
       </c>
       <c r="L12" t="n">
         <v>230.3201507619049</v>
@@ -31870,7 +31870,7 @@
         <v>19.70317823405043</v>
       </c>
       <c r="T12" t="n">
-        <v>4.27561293910091</v>
+        <v>4.275612939100909</v>
       </c>
       <c r="U12" t="n">
         <v>0.06978693589392132</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8893067459269095</v>
+        <v>0.8893067459269094</v>
       </c>
       <c r="H13" t="n">
-        <v>7.906745431968346</v>
+        <v>7.906745431968345</v>
       </c>
       <c r="I13" t="n">
         <v>26.74387923205652</v>
       </c>
       <c r="J13" t="n">
-        <v>62.8739869370325</v>
+        <v>62.87398693703249</v>
       </c>
       <c r="K13" t="n">
         <v>103.3212746631445</v>
@@ -31949,10 +31949,10 @@
         <v>15.49819119947168</v>
       </c>
       <c r="T13" t="n">
-        <v>3.799765187142249</v>
+        <v>3.799765187142248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04850764068692239</v>
+        <v>0.04850764068692238</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,13 +31995,13 @@
         <v>20.30386022531426</v>
       </c>
       <c r="I14" t="n">
-        <v>76.43252252766297</v>
+        <v>76.43252252766298</v>
       </c>
       <c r="J14" t="n">
         <v>168.2670334967184</v>
       </c>
       <c r="K14" t="n">
-        <v>252.1886644829312</v>
+        <v>252.1886644829313</v>
       </c>
       <c r="L14" t="n">
         <v>312.8623383382186</v>
@@ -32022,13 +32022,13 @@
         <v>214.093834825476</v>
       </c>
       <c r="R14" t="n">
-        <v>124.5367860249869</v>
+        <v>124.536786024987</v>
       </c>
       <c r="S14" t="n">
         <v>45.17751396405214</v>
       </c>
       <c r="T14" t="n">
-        <v>8.678642561827235</v>
+        <v>8.678642561827237</v>
       </c>
       <c r="U14" t="n">
         <v>0.1586045471036387</v>
@@ -32071,7 +32071,7 @@
         <v>1.060761425587603</v>
       </c>
       <c r="H15" t="n">
-        <v>10.24472218922764</v>
+        <v>10.24472218922765</v>
       </c>
       <c r="I15" t="n">
         <v>36.52182978448548</v>
@@ -32086,13 +32086,13 @@
         <v>230.3201507619049</v>
       </c>
       <c r="M15" t="n">
-        <v>268.7727524394554</v>
+        <v>268.7727524394555</v>
       </c>
       <c r="N15" t="n">
-        <v>275.8863674382425</v>
+        <v>275.8863674382426</v>
       </c>
       <c r="O15" t="n">
-        <v>252.3821274291698</v>
+        <v>252.3821274291699</v>
       </c>
       <c r="P15" t="n">
         <v>202.558907663303</v>
@@ -32101,7 +32101,7 @@
         <v>135.405265483779</v>
       </c>
       <c r="R15" t="n">
-        <v>65.86025763428999</v>
+        <v>65.86025763429001</v>
       </c>
       <c r="S15" t="n">
         <v>19.70317823405043</v>
@@ -32110,7 +32110,7 @@
         <v>4.275612939100909</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06978693589392131</v>
+        <v>0.06978693589392132</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8893067459269093</v>
+        <v>0.8893067459269094</v>
       </c>
       <c r="H16" t="n">
         <v>7.906745431968345</v>
@@ -32156,7 +32156,7 @@
         <v>26.74387923205652</v>
       </c>
       <c r="J16" t="n">
-        <v>62.87398693703248</v>
+        <v>62.87398693703249</v>
       </c>
       <c r="K16" t="n">
         <v>103.3212746631445</v>
@@ -32177,10 +32177,10 @@
         <v>107.5576086164691</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.46731306120692</v>
+        <v>74.46731306120694</v>
       </c>
       <c r="R16" t="n">
-        <v>39.98646513958629</v>
+        <v>39.9864651395863</v>
       </c>
       <c r="S16" t="n">
         <v>15.49819119947168</v>
@@ -32232,13 +32232,13 @@
         <v>20.30386022531426</v>
       </c>
       <c r="I17" t="n">
-        <v>76.43252252766297</v>
+        <v>76.43252252766298</v>
       </c>
       <c r="J17" t="n">
         <v>168.2670334967184</v>
       </c>
       <c r="K17" t="n">
-        <v>252.1886644829312</v>
+        <v>252.1886644829313</v>
       </c>
       <c r="L17" t="n">
         <v>312.8623383382186</v>
@@ -32259,13 +32259,13 @@
         <v>214.093834825476</v>
       </c>
       <c r="R17" t="n">
-        <v>124.5367860249869</v>
+        <v>124.536786024987</v>
       </c>
       <c r="S17" t="n">
         <v>45.17751396405214</v>
       </c>
       <c r="T17" t="n">
-        <v>8.678642561827235</v>
+        <v>8.678642561827237</v>
       </c>
       <c r="U17" t="n">
         <v>0.1586045471036387</v>
@@ -32308,7 +32308,7 @@
         <v>1.060761425587603</v>
       </c>
       <c r="H18" t="n">
-        <v>10.24472218922764</v>
+        <v>10.24472218922765</v>
       </c>
       <c r="I18" t="n">
         <v>36.52182978448548</v>
@@ -32323,13 +32323,13 @@
         <v>230.3201507619049</v>
       </c>
       <c r="M18" t="n">
-        <v>268.7727524394554</v>
+        <v>268.7727524394555</v>
       </c>
       <c r="N18" t="n">
-        <v>275.8863674382425</v>
+        <v>275.8863674382426</v>
       </c>
       <c r="O18" t="n">
-        <v>252.3821274291698</v>
+        <v>252.3821274291699</v>
       </c>
       <c r="P18" t="n">
         <v>202.558907663303</v>
@@ -32338,7 +32338,7 @@
         <v>135.405265483779</v>
       </c>
       <c r="R18" t="n">
-        <v>65.86025763428999</v>
+        <v>65.86025763429001</v>
       </c>
       <c r="S18" t="n">
         <v>19.70317823405043</v>
@@ -32347,7 +32347,7 @@
         <v>4.275612939100909</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06978693589392131</v>
+        <v>0.06978693589392132</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8893067459269093</v>
+        <v>0.8893067459269094</v>
       </c>
       <c r="H19" t="n">
         <v>7.906745431968345</v>
@@ -32393,7 +32393,7 @@
         <v>26.74387923205652</v>
       </c>
       <c r="J19" t="n">
-        <v>62.87398693703248</v>
+        <v>62.87398693703249</v>
       </c>
       <c r="K19" t="n">
         <v>103.3212746631445</v>
@@ -32414,10 +32414,10 @@
         <v>107.5576086164691</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.46731306120692</v>
+        <v>74.46731306120694</v>
       </c>
       <c r="R19" t="n">
-        <v>39.98646513958629</v>
+        <v>39.9864651395863</v>
       </c>
       <c r="S19" t="n">
         <v>15.49819119947168</v>
@@ -32469,13 +32469,13 @@
         <v>20.30386022531426</v>
       </c>
       <c r="I20" t="n">
-        <v>76.43252252766297</v>
+        <v>76.43252252766298</v>
       </c>
       <c r="J20" t="n">
         <v>168.2670334967184</v>
       </c>
       <c r="K20" t="n">
-        <v>252.1886644829312</v>
+        <v>252.1886644829313</v>
       </c>
       <c r="L20" t="n">
         <v>312.8623383382186</v>
@@ -32496,13 +32496,13 @@
         <v>214.093834825476</v>
       </c>
       <c r="R20" t="n">
-        <v>124.5367860249869</v>
+        <v>124.536786024987</v>
       </c>
       <c r="S20" t="n">
         <v>45.17751396405214</v>
       </c>
       <c r="T20" t="n">
-        <v>8.678642561827235</v>
+        <v>8.678642561827237</v>
       </c>
       <c r="U20" t="n">
         <v>0.1586045471036387</v>
@@ -32545,7 +32545,7 @@
         <v>1.060761425587603</v>
       </c>
       <c r="H21" t="n">
-        <v>10.24472218922764</v>
+        <v>10.24472218922765</v>
       </c>
       <c r="I21" t="n">
         <v>36.52182978448548</v>
@@ -32560,13 +32560,13 @@
         <v>230.3201507619049</v>
       </c>
       <c r="M21" t="n">
-        <v>268.7727524394554</v>
+        <v>268.7727524394555</v>
       </c>
       <c r="N21" t="n">
-        <v>275.8863674382425</v>
+        <v>275.8863674382426</v>
       </c>
       <c r="O21" t="n">
-        <v>252.3821274291698</v>
+        <v>252.3821274291699</v>
       </c>
       <c r="P21" t="n">
         <v>202.558907663303</v>
@@ -32575,7 +32575,7 @@
         <v>135.405265483779</v>
       </c>
       <c r="R21" t="n">
-        <v>65.86025763428999</v>
+        <v>65.86025763429001</v>
       </c>
       <c r="S21" t="n">
         <v>19.70317823405043</v>
@@ -32584,7 +32584,7 @@
         <v>4.275612939100909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06978693589392131</v>
+        <v>0.06978693589392132</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8893067459269093</v>
+        <v>0.8893067459269094</v>
       </c>
       <c r="H22" t="n">
         <v>7.906745431968345</v>
@@ -32630,7 +32630,7 @@
         <v>26.74387923205652</v>
       </c>
       <c r="J22" t="n">
-        <v>62.87398693703248</v>
+        <v>62.87398693703249</v>
       </c>
       <c r="K22" t="n">
         <v>103.3212746631445</v>
@@ -32651,10 +32651,10 @@
         <v>107.5576086164691</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.46731306120692</v>
+        <v>74.46731306120694</v>
       </c>
       <c r="R22" t="n">
-        <v>39.98646513958629</v>
+        <v>39.9864651395863</v>
       </c>
       <c r="S22" t="n">
         <v>15.49819119947168</v>
@@ -34125,13 +34125,13 @@
         <v>1.982556838795484</v>
       </c>
       <c r="H41" t="n">
-        <v>20.30386022531426</v>
+        <v>20.30386022531425</v>
       </c>
       <c r="I41" t="n">
         <v>76.43252252766297</v>
       </c>
       <c r="J41" t="n">
-        <v>168.2670334967184</v>
+        <v>168.2670334967183</v>
       </c>
       <c r="K41" t="n">
         <v>252.1886644829312</v>
@@ -34140,25 +34140,25 @@
         <v>312.8623383382186</v>
       </c>
       <c r="M41" t="n">
-        <v>348.1196335201478</v>
+        <v>348.1196335201477</v>
       </c>
       <c r="N41" t="n">
         <v>353.7525731383755</v>
       </c>
       <c r="O41" t="n">
-        <v>334.0385235726029</v>
+        <v>334.0385235726027</v>
       </c>
       <c r="P41" t="n">
         <v>285.0941516148393</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.093834825476</v>
+        <v>214.0938348254759</v>
       </c>
       <c r="R41" t="n">
         <v>124.5367860249869</v>
       </c>
       <c r="S41" t="n">
-        <v>45.17751396405214</v>
+        <v>45.17751396405213</v>
       </c>
       <c r="T41" t="n">
         <v>8.678642561827235</v>
@@ -34207,7 +34207,7 @@
         <v>10.24472218922764</v>
       </c>
       <c r="I42" t="n">
-        <v>36.52182978448548</v>
+        <v>36.52182978448547</v>
       </c>
       <c r="J42" t="n">
         <v>100.2186924060639</v>
@@ -34216,7 +34216,7 @@
         <v>171.2897079204333</v>
       </c>
       <c r="L42" t="n">
-        <v>230.3201507619049</v>
+        <v>230.3201507619048</v>
       </c>
       <c r="M42" t="n">
         <v>268.7727524394554</v>
@@ -34240,10 +34240,10 @@
         <v>19.70317823405043</v>
       </c>
       <c r="T42" t="n">
-        <v>4.275612939100909</v>
+        <v>4.275612939100908</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06978693589392131</v>
+        <v>0.06978693589392129</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8893067459269093</v>
+        <v>0.8893067459269092</v>
       </c>
       <c r="H43" t="n">
-        <v>7.906745431968345</v>
+        <v>7.906745431968344</v>
       </c>
       <c r="I43" t="n">
-        <v>26.74387923205652</v>
+        <v>26.74387923205651</v>
       </c>
       <c r="J43" t="n">
         <v>62.87398693703248</v>
@@ -34307,7 +34307,7 @@
         <v>125.6994662333781</v>
       </c>
       <c r="P43" t="n">
-        <v>107.5576086164691</v>
+        <v>107.557608616469</v>
       </c>
       <c r="Q43" t="n">
         <v>74.46731306120692</v>
@@ -34319,7 +34319,7 @@
         <v>15.49819119947168</v>
       </c>
       <c r="T43" t="n">
-        <v>3.799765187142248</v>
+        <v>3.799765187142247</v>
       </c>
       <c r="U43" t="n">
         <v>0.04850764068692238</v>
@@ -34362,13 +34362,13 @@
         <v>1.982556838795484</v>
       </c>
       <c r="H44" t="n">
-        <v>20.30386022531426</v>
+        <v>20.30386022531425</v>
       </c>
       <c r="I44" t="n">
         <v>76.43252252766297</v>
       </c>
       <c r="J44" t="n">
-        <v>168.2670334967189</v>
+        <v>168.2670334967183</v>
       </c>
       <c r="K44" t="n">
         <v>252.1886644829312</v>
@@ -34377,25 +34377,25 @@
         <v>312.8623383382186</v>
       </c>
       <c r="M44" t="n">
-        <v>348.1196335201478</v>
+        <v>348.1196335201477</v>
       </c>
       <c r="N44" t="n">
         <v>353.7525731383755</v>
       </c>
       <c r="O44" t="n">
-        <v>334.0385235726029</v>
+        <v>334.0385235726028</v>
       </c>
       <c r="P44" t="n">
         <v>285.0941516148393</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.093834825476</v>
+        <v>214.0938348254759</v>
       </c>
       <c r="R44" t="n">
         <v>124.5367860249869</v>
       </c>
       <c r="S44" t="n">
-        <v>45.17751396405214</v>
+        <v>45.17751396405213</v>
       </c>
       <c r="T44" t="n">
         <v>8.678642561827235</v>
@@ -34444,7 +34444,7 @@
         <v>10.24472218922764</v>
       </c>
       <c r="I45" t="n">
-        <v>36.52182978448548</v>
+        <v>36.52182978448547</v>
       </c>
       <c r="J45" t="n">
         <v>100.2186924060639</v>
@@ -34453,7 +34453,7 @@
         <v>171.2897079204333</v>
       </c>
       <c r="L45" t="n">
-        <v>230.3201507619049</v>
+        <v>230.3201507619048</v>
       </c>
       <c r="M45" t="n">
         <v>268.7727524394554</v>
@@ -34477,10 +34477,10 @@
         <v>19.70317823405043</v>
       </c>
       <c r="T45" t="n">
-        <v>4.275612939100909</v>
+        <v>4.275612939100908</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06978693589392131</v>
+        <v>0.06978693589392129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8893067459269093</v>
+        <v>0.8893067459269092</v>
       </c>
       <c r="H46" t="n">
-        <v>7.906745431968345</v>
+        <v>7.906745431968344</v>
       </c>
       <c r="I46" t="n">
-        <v>26.74387923205652</v>
+        <v>26.74387923205651</v>
       </c>
       <c r="J46" t="n">
         <v>62.87398693703248</v>
@@ -34544,7 +34544,7 @@
         <v>125.6994662333781</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5576086164691</v>
+        <v>107.557608616469</v>
       </c>
       <c r="Q46" t="n">
         <v>74.46731306120692</v>
@@ -34556,7 +34556,7 @@
         <v>15.49819119947168</v>
       </c>
       <c r="T46" t="n">
-        <v>3.799765187142248</v>
+        <v>3.799765187142247</v>
       </c>
       <c r="U46" t="n">
         <v>0.04850764068692238</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>94.94344216341045</v>
+        <v>94.94344216341042</v>
       </c>
       <c r="K11" t="n">
         <v>163.0522748097142</v>
       </c>
       <c r="L11" t="n">
-        <v>217.3769402753739</v>
+        <v>217.3769402753738</v>
       </c>
       <c r="M11" t="n">
         <v>254.8294090631024</v>
       </c>
       <c r="N11" t="n">
-        <v>260.8402823817563</v>
+        <v>260.8402823817562</v>
       </c>
       <c r="O11" t="n">
         <v>240.8487479468198</v>
@@ -35430,10 +35430,10 @@
         <v>191.4447883339552</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.060030426324</v>
+        <v>124.0600304263239</v>
       </c>
       <c r="R11" t="n">
-        <v>37.22464321026345</v>
+        <v>37.22464321026344</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J12" t="n">
         <v>294.979154590542</v>
       </c>
       <c r="K12" t="n">
-        <v>115.463925135818</v>
+        <v>115.4639251358179</v>
       </c>
       <c r="L12" t="n">
-        <v>174.2056269510559</v>
+        <v>174.2056269510558</v>
       </c>
       <c r="M12" t="n">
         <v>211.208468701038</v>
@@ -35509,10 +35509,10 @@
         <v>148.2992726604993</v>
       </c>
       <c r="Q12" t="n">
-        <v>216.2804295692189</v>
+        <v>111.4414057789978</v>
       </c>
       <c r="R12" t="n">
-        <v>6.860058528884601</v>
+        <v>95.71835800058284</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77.09878431603303</v>
+        <v>77.09878431603302</v>
       </c>
       <c r="K13" t="n">
-        <v>51.07090510407772</v>
+        <v>230.1677778776176</v>
       </c>
       <c r="L13" t="n">
-        <v>255.577522841538</v>
+        <v>394.7379828142007</v>
       </c>
       <c r="M13" t="n">
         <v>400.1975390368908</v>
@@ -35582,7 +35582,7 @@
         <v>84.37554043874125</v>
       </c>
       <c r="O13" t="n">
-        <v>387.8819009065843</v>
+        <v>69.62456816038178</v>
       </c>
       <c r="P13" t="n">
         <v>315.3105785655725</v>
@@ -35649,28 +35649,28 @@
         <v>94.94344216341042</v>
       </c>
       <c r="K14" t="n">
-        <v>163.0522748097141</v>
+        <v>163.0522748097142</v>
       </c>
       <c r="L14" t="n">
         <v>217.3769402753738</v>
       </c>
       <c r="M14" t="n">
-        <v>254.8294090631023</v>
+        <v>254.8294090631024</v>
       </c>
       <c r="N14" t="n">
-        <v>260.8402823817561</v>
+        <v>260.8402823817562</v>
       </c>
       <c r="O14" t="n">
-        <v>240.8487479468197</v>
+        <v>240.8487479468198</v>
       </c>
       <c r="P14" t="n">
-        <v>191.4447883339551</v>
+        <v>191.4447883339552</v>
       </c>
       <c r="Q14" t="n">
         <v>124.0600304263239</v>
       </c>
       <c r="R14" t="n">
-        <v>37.22464321026342</v>
+        <v>37.22464321026344</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J15" t="n">
-        <v>48.84945360606388</v>
+        <v>294.979154590542</v>
       </c>
       <c r="K15" t="n">
         <v>115.4639251358179</v>
@@ -35737,19 +35737,19 @@
         <v>211.208468701038</v>
       </c>
       <c r="N15" t="n">
-        <v>222.6929740444925</v>
+        <v>222.6929740444926</v>
       </c>
       <c r="O15" t="n">
-        <v>400.1975390368908</v>
+        <v>194.6306484291699</v>
       </c>
       <c r="P15" t="n">
-        <v>326.4298656275353</v>
+        <v>148.2992726604993</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.71264697894028</v>
+        <v>111.4414057789978</v>
       </c>
       <c r="R15" t="n">
-        <v>6.860058528884586</v>
+        <v>95.71835800058284</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.098784316033</v>
+        <v>11.44084125407707</v>
       </c>
       <c r="K16" t="n">
-        <v>259.4347370088394</v>
+        <v>51.07090510407771</v>
       </c>
       <c r="L16" t="n">
-        <v>77.58736540508644</v>
+        <v>394.7379828142007</v>
       </c>
       <c r="M16" t="n">
+        <v>329.130356274237</v>
+      </c>
+      <c r="N16" t="n">
         <v>400.1975390368908</v>
       </c>
-      <c r="N16" t="n">
-        <v>84.37554043874123</v>
-      </c>
       <c r="O16" t="n">
-        <v>229.9587716849035</v>
+        <v>69.62456816038178</v>
       </c>
       <c r="P16" t="n">
-        <v>315.3105785655724</v>
+        <v>315.3105785655725</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6572421546522</v>
+        <v>13.10778740128137</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>94.94344216341042</v>
       </c>
       <c r="K17" t="n">
-        <v>163.0522748097141</v>
+        <v>163.0522748097142</v>
       </c>
       <c r="L17" t="n">
         <v>217.3769402753738</v>
       </c>
       <c r="M17" t="n">
-        <v>254.8294090631023</v>
+        <v>254.8294090631024</v>
       </c>
       <c r="N17" t="n">
-        <v>260.8402823817561</v>
+        <v>260.8402823817562</v>
       </c>
       <c r="O17" t="n">
-        <v>240.8487479468197</v>
+        <v>240.8487479468198</v>
       </c>
       <c r="P17" t="n">
-        <v>191.4447883339551</v>
+        <v>191.4447883339552</v>
       </c>
       <c r="Q17" t="n">
         <v>124.0600304263239</v>
       </c>
       <c r="R17" t="n">
-        <v>37.22464321026342</v>
+        <v>37.22464321026344</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J18" t="n">
         <v>294.979154590542</v>
@@ -35974,19 +35974,19 @@
         <v>211.208468701038</v>
       </c>
       <c r="N18" t="n">
-        <v>222.6929740444925</v>
+        <v>222.6929740444926</v>
       </c>
       <c r="O18" t="n">
-        <v>194.6306484291698</v>
+        <v>194.6306484291699</v>
       </c>
       <c r="P18" t="n">
-        <v>148.2992726604992</v>
+        <v>148.2992726604993</v>
       </c>
       <c r="Q18" t="n">
-        <v>216.2804295692189</v>
+        <v>111.4414057789973</v>
       </c>
       <c r="R18" t="n">
-        <v>6.860058528884586</v>
+        <v>95.71835800058284</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.44084125407706</v>
+        <v>77.09878431603302</v>
       </c>
       <c r="K19" t="n">
-        <v>259.4347370088394</v>
+        <v>259.4347370088395</v>
       </c>
       <c r="L19" t="n">
-        <v>77.58736540508644</v>
+        <v>236.7238429916422</v>
       </c>
       <c r="M19" t="n">
-        <v>400.1975390368907</v>
+        <v>83.13793222865357</v>
       </c>
       <c r="N19" t="n">
-        <v>84.37554043874123</v>
+        <v>84.37554043874125</v>
       </c>
       <c r="O19" t="n">
-        <v>295.6167147468591</v>
+        <v>387.8819009065843</v>
       </c>
       <c r="P19" t="n">
-        <v>315.3105785655724</v>
+        <v>315.3105785655725</v>
       </c>
       <c r="Q19" t="n">
         <v>140.6572421546522</v>
@@ -36123,28 +36123,28 @@
         <v>94.94344216341042</v>
       </c>
       <c r="K20" t="n">
-        <v>163.0522748097141</v>
+        <v>163.0522748097142</v>
       </c>
       <c r="L20" t="n">
         <v>217.3769402753738</v>
       </c>
       <c r="M20" t="n">
-        <v>254.8294090631023</v>
+        <v>254.8294090631024</v>
       </c>
       <c r="N20" t="n">
-        <v>260.8402823817561</v>
+        <v>260.8402823817562</v>
       </c>
       <c r="O20" t="n">
-        <v>240.8487479468197</v>
+        <v>240.8487479468198</v>
       </c>
       <c r="P20" t="n">
-        <v>191.4447883339551</v>
+        <v>191.4447883339552</v>
       </c>
       <c r="Q20" t="n">
         <v>124.0600304263239</v>
       </c>
       <c r="R20" t="n">
-        <v>37.22464321026342</v>
+        <v>37.22464321026344</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J21" t="n">
-        <v>48.84945360606388</v>
+        <v>294.979154590542</v>
       </c>
       <c r="K21" t="n">
-        <v>115.4639251358179</v>
+        <v>148.1926839358752</v>
       </c>
       <c r="L21" t="n">
         <v>174.2056269510558</v>
       </c>
       <c r="M21" t="n">
-        <v>400.1975390368907</v>
+        <v>211.208468701038</v>
       </c>
       <c r="N21" t="n">
-        <v>400.1975390368907</v>
+        <v>222.6929740444926</v>
       </c>
       <c r="O21" t="n">
-        <v>194.6306484291698</v>
+        <v>194.6306484291699</v>
       </c>
       <c r="P21" t="n">
-        <v>148.2992726604992</v>
+        <v>148.2992726604993</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.71264697894028</v>
+        <v>78.71264697894031</v>
       </c>
       <c r="R21" t="n">
-        <v>24.06390677539034</v>
+        <v>95.71835800058284</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.44084125407706</v>
+        <v>77.09878431603302</v>
       </c>
       <c r="K22" t="n">
-        <v>242.4298185933439</v>
+        <v>259.4347370088395</v>
       </c>
       <c r="L22" t="n">
-        <v>77.58736540508644</v>
+        <v>394.7379828142007</v>
       </c>
       <c r="M22" t="n">
-        <v>400.1975390368907</v>
+        <v>83.13793222865357</v>
       </c>
       <c r="N22" t="n">
-        <v>400.1975390368907</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="O22" t="n">
-        <v>387.8819009065843</v>
+        <v>305.1280288282559</v>
       </c>
       <c r="P22" t="n">
-        <v>51.77776697656427</v>
+        <v>51.77776697656429</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.10778740128136</v>
+        <v>13.10778740128137</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J24" t="n">
-        <v>48.84945360606388</v>
+        <v>294.979154590542</v>
       </c>
       <c r="K24" t="n">
         <v>115.4639251358179</v>
       </c>
       <c r="L24" t="n">
-        <v>352.3362199180915</v>
+        <v>174.2056269510558</v>
       </c>
       <c r="M24" t="n">
         <v>211.208468701038</v>
@@ -36451,16 +36451,16 @@
         <v>222.6929740444925</v>
       </c>
       <c r="O24" t="n">
-        <v>400.1975390368907</v>
+        <v>194.6306484291698</v>
       </c>
       <c r="P24" t="n">
         <v>148.2992726604992</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.71264697894028</v>
+        <v>111.4414057789976</v>
       </c>
       <c r="R24" t="n">
-        <v>6.860058528884586</v>
+        <v>95.71835800058281</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.44084125407706</v>
+        <v>77.098784316033</v>
       </c>
       <c r="K25" t="n">
-        <v>167.0785402482373</v>
+        <v>259.4347370088394</v>
       </c>
       <c r="L25" t="n">
         <v>394.7379828142007</v>
       </c>
       <c r="M25" t="n">
-        <v>83.13793222865354</v>
+        <v>370.9305799056688</v>
       </c>
       <c r="N25" t="n">
         <v>84.37554043874123</v>
       </c>
       <c r="O25" t="n">
-        <v>387.8819009065843</v>
+        <v>69.62456816038176</v>
       </c>
       <c r="P25" t="n">
         <v>315.3105785655724</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.6572421546522</v>
+        <v>13.10778740128136</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J27" t="n">
         <v>294.979154590542</v>
@@ -36694,10 +36694,10 @@
         <v>148.2992726604992</v>
       </c>
       <c r="Q27" t="n">
-        <v>216.2804295692194</v>
+        <v>111.4414057789976</v>
       </c>
       <c r="R27" t="n">
-        <v>6.860058528884586</v>
+        <v>95.71835800058281</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>51.0709051040777</v>
       </c>
       <c r="L28" t="n">
-        <v>77.58736540508644</v>
+        <v>394.7379828142007</v>
       </c>
       <c r="M28" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="N28" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="O28" t="n">
-        <v>387.8819009065843</v>
+        <v>262.0901969867363</v>
       </c>
       <c r="P28" t="n">
-        <v>115.5872257124599</v>
+        <v>51.77776697656427</v>
       </c>
       <c r="Q28" t="n">
-        <v>140.6572421546522</v>
+        <v>13.10778740128136</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>211.208468701038</v>
       </c>
       <c r="N30" t="n">
-        <v>222.6929740444925</v>
+        <v>255.4217328445498</v>
       </c>
       <c r="O30" t="n">
         <v>194.6306484291698</v>
@@ -36931,10 +36931,10 @@
         <v>148.2992726604992</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.2997052506962</v>
+        <v>78.71264697894028</v>
       </c>
       <c r="R30" t="n">
-        <v>6.860058528884586</v>
+        <v>95.71835800058281</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.098784316033</v>
+        <v>11.44084125407706</v>
       </c>
       <c r="K31" t="n">
         <v>51.0709051040777</v>
       </c>
       <c r="L31" t="n">
-        <v>77.58736540508644</v>
+        <v>268.9462788943526</v>
       </c>
       <c r="M31" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="N31" t="n">
-        <v>400.1975390368908</v>
+        <v>400.1975390368907</v>
       </c>
       <c r="O31" t="n">
-        <v>386.0334165805239</v>
+        <v>387.8819009065843</v>
       </c>
       <c r="P31" t="n">
         <v>51.77776697656427</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.6572421546522</v>
+        <v>13.10778740128136</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J33" t="n">
-        <v>294.979154590542</v>
+        <v>48.84945360606388</v>
       </c>
       <c r="K33" t="n">
-        <v>253.031707726097</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="L33" t="n">
         <v>174.2056269510558</v>
@@ -37168,7 +37168,7 @@
         <v>148.2992726604992</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.71264697894028</v>
+        <v>161.6957923341015</v>
       </c>
       <c r="R33" t="n">
         <v>6.860058528884586</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.44084125407706</v>
+        <v>77.098784316033</v>
       </c>
       <c r="K34" t="n">
-        <v>259.4347370088394</v>
+        <v>51.0709051040777</v>
       </c>
       <c r="L34" t="n">
         <v>394.7379828142007</v>
       </c>
       <c r="M34" t="n">
-        <v>83.13793222865354</v>
+        <v>399.4557700479187</v>
       </c>
       <c r="N34" t="n">
-        <v>84.37554043874123</v>
+        <v>400.1975390368908</v>
       </c>
       <c r="O34" t="n">
-        <v>387.8819009065843</v>
+        <v>69.62456816038176</v>
       </c>
       <c r="P34" t="n">
-        <v>315.3105785655724</v>
+        <v>51.77776697656427</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.30104539405052</v>
+        <v>140.6572421546522</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>15.98072431852325</v>
       </c>
       <c r="J36" t="n">
-        <v>48.84945360606388</v>
+        <v>294.979154590542</v>
       </c>
       <c r="K36" t="n">
-        <v>115.4639251358179</v>
+        <v>148.1926839358756</v>
       </c>
       <c r="L36" t="n">
         <v>174.2056269510558</v>
@@ -37402,13 +37402,13 @@
         <v>194.6306484291698</v>
       </c>
       <c r="P36" t="n">
-        <v>194.5311398587824</v>
+        <v>148.2992726604992</v>
       </c>
       <c r="Q36" t="n">
-        <v>400.1975390368908</v>
+        <v>78.71264697894028</v>
       </c>
       <c r="R36" t="n">
-        <v>6.860058528884586</v>
+        <v>95.71835800058281</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>51.0709051040777</v>
       </c>
       <c r="L37" t="n">
-        <v>394.7379828142007</v>
+        <v>321.2354659034943</v>
       </c>
       <c r="M37" t="n">
         <v>400.1975390368908</v>
@@ -37481,7 +37481,7 @@
         <v>387.8819009065843</v>
       </c>
       <c r="P37" t="n">
-        <v>241.8080616548662</v>
+        <v>315.3105785655724</v>
       </c>
       <c r="Q37" t="n">
         <v>13.10778740128136</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.98072431852325</v>
       </c>
       <c r="J39" t="n">
-        <v>166.1840727167246</v>
+        <v>294.979154590542</v>
       </c>
       <c r="K39" t="n">
-        <v>115.4639251358179</v>
+        <v>237.0509834075738</v>
       </c>
       <c r="L39" t="n">
         <v>174.2056269510558</v>
@@ -37633,7 +37633,7 @@
         <v>211.208468701038</v>
       </c>
       <c r="N39" t="n">
-        <v>400.1975390368908</v>
+        <v>222.6929740444925</v>
       </c>
       <c r="O39" t="n">
         <v>194.6306484291698</v>
@@ -37645,7 +37645,7 @@
         <v>78.71264697894028</v>
       </c>
       <c r="R39" t="n">
-        <v>95.71835800058281</v>
+        <v>6.860058528884586</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.44084125407706</v>
+        <v>77.098784316033</v>
       </c>
       <c r="K40" t="n">
         <v>259.4347370088394</v>
       </c>
       <c r="L40" t="n">
-        <v>77.58736540508644</v>
+        <v>236.723842991643</v>
       </c>
       <c r="M40" t="n">
-        <v>400.1975390368908</v>
+        <v>83.13793222865354</v>
       </c>
       <c r="N40" t="n">
-        <v>400.1975390368908</v>
+        <v>84.37554043874123</v>
       </c>
       <c r="O40" t="n">
-        <v>69.62456816038176</v>
+        <v>387.8819009065843</v>
       </c>
       <c r="P40" t="n">
-        <v>225.4807265539006</v>
+        <v>315.3105785655724</v>
       </c>
       <c r="Q40" t="n">
         <v>140.6572421546522</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>94.94344216341042</v>
+        <v>94.9434421634104</v>
       </c>
       <c r="K41" t="n">
         <v>163.0522748097141</v>
@@ -37794,7 +37794,7 @@
         <v>260.8402823817561</v>
       </c>
       <c r="O41" t="n">
-        <v>240.8487479468197</v>
+        <v>240.8487479468196</v>
       </c>
       <c r="P41" t="n">
         <v>191.4447883339551</v>
@@ -37803,7 +37803,7 @@
         <v>124.0600304263239</v>
       </c>
       <c r="R41" t="n">
-        <v>37.22464321026342</v>
+        <v>37.22464321026341</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.98072431852325</v>
+        <v>15.98072431852324</v>
       </c>
       <c r="J42" t="n">
-        <v>239.0616478698996</v>
+        <v>294.9791545905419</v>
       </c>
       <c r="K42" t="n">
         <v>115.4639251358179</v>
@@ -37870,7 +37870,7 @@
         <v>211.208468701038</v>
       </c>
       <c r="N42" t="n">
-        <v>400.1975390368909</v>
+        <v>222.6929740444925</v>
       </c>
       <c r="O42" t="n">
         <v>194.6306484291698</v>
@@ -37879,7 +37879,7 @@
         <v>148.2992726604992</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.71264697894028</v>
+        <v>200.2997052506957</v>
       </c>
       <c r="R42" t="n">
         <v>6.860058528884586</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.44084125407706</v>
+        <v>77.098784316033</v>
       </c>
       <c r="K43" t="n">
         <v>259.4347370088394</v>
       </c>
       <c r="L43" t="n">
-        <v>394.7379828142007</v>
+        <v>236.7238429916425</v>
       </c>
       <c r="M43" t="n">
-        <v>381.8640018104314</v>
+        <v>83.13793222865354</v>
       </c>
       <c r="N43" t="n">
         <v>84.37554043874123</v>
@@ -37955,10 +37955,10 @@
         <v>387.8819009065843</v>
       </c>
       <c r="P43" t="n">
-        <v>51.77776697656427</v>
+        <v>315.3105785655724</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.10778740128136</v>
+        <v>140.6572421546522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>94.94344216341089</v>
+        <v>94.9434421634104</v>
       </c>
       <c r="K44" t="n">
         <v>163.0522748097141</v>
@@ -38040,7 +38040,7 @@
         <v>124.0600304263239</v>
       </c>
       <c r="R44" t="n">
-        <v>37.22464321026342</v>
+        <v>37.22464321026341</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.98072431852325</v>
+        <v>15.98072431852324</v>
       </c>
       <c r="J45" t="n">
-        <v>48.84945360606388</v>
+        <v>294.9791545905419</v>
       </c>
       <c r="K45" t="n">
         <v>115.4639251358179</v>
@@ -38116,7 +38116,7 @@
         <v>148.2992726604992</v>
       </c>
       <c r="Q45" t="n">
-        <v>357.5711067634761</v>
+        <v>111.4414057789976</v>
       </c>
       <c r="R45" t="n">
         <v>95.71835800058281</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.44084125407706</v>
+        <v>46.63409924684586</v>
       </c>
       <c r="K46" t="n">
-        <v>51.0709051040777</v>
+        <v>259.4347370088394</v>
       </c>
       <c r="L46" t="n">
-        <v>268.9462788943532</v>
+        <v>394.7379828142007</v>
       </c>
       <c r="M46" t="n">
-        <v>400.1975390368909</v>
+        <v>83.13793222865354</v>
       </c>
       <c r="N46" t="n">
-        <v>400.1975390368909</v>
+        <v>84.37554043874123</v>
       </c>
       <c r="O46" t="n">
         <v>387.8819009065843</v>
       </c>
       <c r="P46" t="n">
-        <v>51.77776697656427</v>
+        <v>315.3105785655724</v>
       </c>
       <c r="Q46" t="n">
         <v>13.10778740128136</v>
